--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="58">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,22 +52,25 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -127,28 +130,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -164,6 +170,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -597,22 +606,22 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -632,22 +641,22 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -682,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,34 +699,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -725,34 +734,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -766,16 +775,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -784,10 +793,10 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -801,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -810,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -830,10 +839,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -842,22 +851,22 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -868,31 +877,31 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -903,31 +912,31 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -945,13 +954,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -962,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -973,13 +982,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -987,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1001,13 +1010,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1015,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1029,13 +1038,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1043,13 +1052,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1057,13 +1066,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1071,13 +1080,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1085,10 +1094,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1109,16 +1118,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1129,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1143,16 +1152,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D3">
-        <v>0.2000000000000002</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1160,16 +1169,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1177,16 +1186,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1194,13 +1203,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D6">
-        <v>-0.2000000000000002</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1211,16 +1220,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D7">
-        <v>-1.5</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1231,10 +1240,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D8">
-        <v>0.2999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1245,16 +1254,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2.2</v>
       </c>
       <c r="D9">
-        <v>0.2000000000000002</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1262,13 +1271,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D10">
-        <v>-0.3</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1282,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1306,40 +1315,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1347,37 +1356,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>34.43</v>
+        <v>21.91</v>
       </c>
       <c r="C2">
-        <v>24.51</v>
+        <v>21.18</v>
       </c>
       <c r="D2">
-        <v>15.72</v>
+        <v>16.52</v>
       </c>
       <c r="E2">
-        <v>10.09</v>
+        <v>12.43</v>
       </c>
       <c r="F2">
-        <v>6.260000000000001</v>
+        <v>10.96</v>
       </c>
       <c r="G2">
-        <v>4.34</v>
+        <v>6.69</v>
       </c>
       <c r="H2">
-        <v>2.51</v>
+        <v>6.06</v>
       </c>
       <c r="I2">
-        <v>1.48</v>
+        <v>2.78</v>
       </c>
       <c r="J2">
-        <v>0.5700000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="K2">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="L2">
-        <v>95.35000000000001</v>
+        <v>89.69</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1385,37 +1394,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>24.15</v>
+        <v>21.55</v>
       </c>
       <c r="C3">
-        <v>18.16</v>
+        <v>17.58</v>
       </c>
       <c r="D3">
-        <v>15.49</v>
+        <v>13.94</v>
       </c>
       <c r="E3">
-        <v>13.18</v>
+        <v>13.63</v>
       </c>
       <c r="F3">
-        <v>9.959999999999999</v>
+        <v>11.02</v>
       </c>
       <c r="G3">
-        <v>7.99</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H3">
-        <v>5.319999999999999</v>
+        <v>6.99</v>
       </c>
       <c r="I3">
-        <v>3.92</v>
+        <v>4.71</v>
       </c>
       <c r="J3">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="K3">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="L3">
-        <v>88.92999999999999</v>
+        <v>85.77</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1423,113 +1432,113 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>11.87</v>
+      </c>
+      <c r="C4">
+        <v>11.56</v>
+      </c>
+      <c r="D4">
+        <v>11.66</v>
+      </c>
+      <c r="E4">
+        <v>13.75</v>
+      </c>
+      <c r="F4">
+        <v>10.47</v>
+      </c>
+      <c r="G4">
+        <v>12.75</v>
+      </c>
+      <c r="H4">
         <v>10.66</v>
       </c>
-      <c r="C4">
-        <v>11.6</v>
-      </c>
-      <c r="D4">
-        <v>13.03</v>
-      </c>
-      <c r="E4">
-        <v>11.91</v>
-      </c>
-      <c r="F4">
-        <v>13.16</v>
-      </c>
-      <c r="G4">
-        <v>11.52</v>
-      </c>
-      <c r="H4">
-        <v>10.48</v>
-      </c>
       <c r="I4">
-        <v>9.34</v>
+        <v>9.25</v>
       </c>
       <c r="J4">
-        <v>6.3</v>
+        <v>6.21</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="L4">
-        <v>71.88</v>
+        <v>72.06</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>8.619999999999999</v>
+        <v>11.63</v>
       </c>
       <c r="C5">
-        <v>10.97</v>
+        <v>11.68</v>
       </c>
       <c r="D5">
-        <v>12.33</v>
+        <v>11.91</v>
       </c>
       <c r="E5">
-        <v>11.61</v>
+        <v>13.29</v>
       </c>
       <c r="F5">
-        <v>13.16</v>
+        <v>11.86</v>
       </c>
       <c r="G5">
-        <v>11.38</v>
+        <v>11.95</v>
       </c>
       <c r="H5">
-        <v>11.91</v>
+        <v>11.31</v>
       </c>
       <c r="I5">
-        <v>9.9</v>
+        <v>8.98</v>
       </c>
       <c r="J5">
-        <v>7.7</v>
+        <v>5.75</v>
       </c>
       <c r="K5">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="L5">
-        <v>68.06999999999999</v>
+        <v>72.31999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>7.430000000000001</v>
+        <v>11.38</v>
       </c>
       <c r="C6">
-        <v>9.81</v>
+        <v>11.87</v>
       </c>
       <c r="D6">
-        <v>10.59</v>
+        <v>12.87</v>
       </c>
       <c r="E6">
-        <v>12.13</v>
+        <v>13.39</v>
       </c>
       <c r="F6">
-        <v>12.83</v>
+        <v>10.67</v>
       </c>
       <c r="G6">
-        <v>11.87</v>
+        <v>13.03</v>
       </c>
       <c r="H6">
-        <v>12.14</v>
+        <v>10.09</v>
       </c>
       <c r="I6">
-        <v>10.68</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J6">
-        <v>9.049999999999999</v>
+        <v>5.92</v>
       </c>
       <c r="K6">
-        <v>3.47</v>
+        <v>1.89</v>
       </c>
       <c r="L6">
-        <v>64.66</v>
+        <v>73.21000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1537,37 +1546,37 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>6.29</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C7">
-        <v>9.879999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="D7">
-        <v>10.72</v>
+        <v>11.97</v>
       </c>
       <c r="E7">
-        <v>12.76</v>
+        <v>10.87</v>
       </c>
       <c r="F7">
-        <v>12.75</v>
+        <v>12.07</v>
       </c>
       <c r="G7">
-        <v>11.5</v>
+        <v>13.46</v>
       </c>
       <c r="H7">
-        <v>11.94</v>
+        <v>10.35</v>
       </c>
       <c r="I7">
-        <v>10.79</v>
+        <v>10.45</v>
       </c>
       <c r="J7">
-        <v>9.370000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>3.330000000000001</v>
       </c>
       <c r="L7">
-        <v>63.9</v>
+        <v>68.17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1575,113 +1584,113 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.75</v>
+        <v>9.09</v>
       </c>
       <c r="C8">
-        <v>7.76</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="D8">
-        <v>9.24</v>
+        <v>12.22</v>
       </c>
       <c r="E8">
-        <v>12.05</v>
+        <v>10.52</v>
       </c>
       <c r="F8">
-        <v>11.56</v>
+        <v>13.28</v>
       </c>
       <c r="G8">
-        <v>12.31</v>
+        <v>12.27</v>
       </c>
       <c r="H8">
-        <v>13.44</v>
+        <v>11.28</v>
       </c>
       <c r="I8">
-        <v>12.69</v>
+        <v>10.18</v>
       </c>
       <c r="J8">
-        <v>10.96</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K8">
-        <v>5.24</v>
+        <v>3.61</v>
       </c>
       <c r="L8">
-        <v>57.67</v>
+        <v>66.89999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="C9">
-        <v>4.66</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="D9">
-        <v>7.539999999999999</v>
+        <v>5.96</v>
       </c>
       <c r="E9">
-        <v>9.359999999999999</v>
+        <v>7.16</v>
       </c>
       <c r="F9">
-        <v>9.91</v>
+        <v>11.23</v>
       </c>
       <c r="G9">
-        <v>14.15</v>
+        <v>10.8</v>
       </c>
       <c r="H9">
-        <v>13.74</v>
+        <v>14.77</v>
       </c>
       <c r="I9">
-        <v>14.72</v>
+        <v>16.1</v>
       </c>
       <c r="J9">
-        <v>13.75</v>
+        <v>16.58</v>
       </c>
       <c r="K9">
-        <v>9.67</v>
+        <v>10.55</v>
       </c>
       <c r="L9">
-        <v>48.12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>1.15</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C10">
-        <v>2.59</v>
+        <v>1.77</v>
       </c>
       <c r="D10">
-        <v>5.18</v>
+        <v>2.84</v>
       </c>
       <c r="E10">
-        <v>6.44</v>
+        <v>4.6</v>
       </c>
       <c r="F10">
-        <v>9.210000000000001</v>
+        <v>7.81</v>
       </c>
       <c r="G10">
-        <v>12.8</v>
+        <v>8.98</v>
       </c>
       <c r="H10">
-        <v>14.09</v>
+        <v>14.22</v>
       </c>
       <c r="I10">
-        <v>16.6</v>
+        <v>18.13</v>
       </c>
       <c r="J10">
-        <v>18.19</v>
+        <v>21.46</v>
       </c>
       <c r="K10">
-        <v>13.75</v>
+        <v>19.5</v>
       </c>
       <c r="L10">
-        <v>37.37</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1689,37 +1698,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
         <v>0.06</v>
       </c>
       <c r="D11">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E11">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="F11">
-        <v>1.2</v>
+        <v>0.63</v>
       </c>
       <c r="G11">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="H11">
-        <v>4.43</v>
+        <v>4.27</v>
       </c>
       <c r="I11">
-        <v>9.879999999999999</v>
+        <v>10.53</v>
       </c>
       <c r="J11">
-        <v>22.6</v>
+        <v>24.92</v>
       </c>
       <c r="K11">
-        <v>59.04000000000001</v>
+        <v>57.09</v>
       </c>
       <c r="L11">
-        <v>4.05</v>
+        <v>3.19</v>
       </c>
     </row>
   </sheetData>
@@ -1737,16 +1746,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1757,13 +1766,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1771,16 +1780,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1788,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1797,7 +1806,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1808,13 +1817,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1822,16 +1831,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1839,16 +1848,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1859,13 +1868,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1873,16 +1882,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1893,13 +1902,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1910,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-19</v>
+        <v>-26</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1926,33 +1935,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1971,57 +1983,66 @@
       <c r="F2">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>-2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>-1</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2040,57 +2061,66 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="E6">
         <v>-6</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>-6</v>
       </c>
-      <c r="D6">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <v>-6</v>
       </c>
-      <c r="E6">
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="D7">
+        <v>-6</v>
+      </c>
+      <c r="E7">
         <v>-2</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>-4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2109,34 +2139,40 @@
       <c r="F8">
         <v>-4</v>
       </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <v>-11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2155,11 +2191,14 @@
       <c r="F10">
         <v>-14</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2178,8 +2217,11 @@
       <c r="F11">
         <v>-19</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
+      <c r="G11">
+        <v>-26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2189,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2197,25 +2239,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2223,25 +2265,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
         <v>-2</v>
       </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
       <c r="G2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2252,22 +2294,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F3">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2275,25 +2317,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
       <c r="E4">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="F4">
-        <v>-6</v>
+        <v>-19</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2301,25 +2343,103 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="59">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,25 +52,28 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -130,31 +133,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓1</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↓5</t>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -597,22 +600,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -621,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -632,31 +635,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,28 +670,28 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -702,10 +705,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -714,13 +717,13 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -734,19 +737,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -761,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -769,34 +772,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -807,10 +810,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -819,16 +822,16 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -839,13 +842,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -854,19 +857,19 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -877,31 +880,31 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -909,28 +912,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -954,13 +957,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -971,10 +974,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -985,10 +988,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -996,13 +999,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1010,10 +1013,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1027,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1041,10 +1044,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1055,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1069,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1097,10 +1100,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1118,16 +1121,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1138,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1152,16 +1155,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D3">
-        <v>-0.2000000000000002</v>
+        <v>-1.6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1169,16 +1172,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D4">
-        <v>-1.5</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1189,13 +1192,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1203,16 +1206,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D6">
-        <v>0.3999999999999999</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1223,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D7">
-        <v>0.2999999999999998</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1240,13 +1243,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D8">
-        <v>1.1</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1254,13 +1257,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>-0.7999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1271,16 +1274,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D10">
-        <v>0.2000000000000002</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1297,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1315,230 +1318,230 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28.61</v>
+      </c>
+      <c r="C2">
+        <v>20.33</v>
+      </c>
+      <c r="D2">
+        <v>17.15</v>
+      </c>
+      <c r="E2">
+        <v>12.11</v>
+      </c>
+      <c r="F2">
+        <v>8.4</v>
+      </c>
+      <c r="G2">
+        <v>6.83</v>
+      </c>
+      <c r="H2">
+        <v>3.64</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>21.91</v>
-      </c>
-      <c r="C2">
-        <v>21.18</v>
-      </c>
-      <c r="D2">
-        <v>16.52</v>
-      </c>
-      <c r="E2">
-        <v>12.43</v>
-      </c>
-      <c r="F2">
-        <v>10.96</v>
-      </c>
-      <c r="G2">
-        <v>6.69</v>
-      </c>
-      <c r="H2">
-        <v>6.06</v>
-      </c>
-      <c r="I2">
-        <v>2.78</v>
-      </c>
       <c r="J2">
-        <v>1.29</v>
+        <v>0.79</v>
       </c>
       <c r="K2">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="L2">
-        <v>89.69</v>
+        <v>93.43000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>21.55</v>
+        <v>20.18</v>
       </c>
       <c r="C3">
-        <v>17.58</v>
+        <v>22.28</v>
       </c>
       <c r="D3">
-        <v>13.94</v>
+        <v>17.86</v>
       </c>
       <c r="E3">
-        <v>13.63</v>
+        <v>14.52</v>
       </c>
       <c r="F3">
-        <v>11.02</v>
+        <v>9.84</v>
       </c>
       <c r="G3">
-        <v>8.050000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="H3">
-        <v>6.99</v>
+        <v>4.24</v>
       </c>
       <c r="I3">
-        <v>4.71</v>
+        <v>2.23</v>
       </c>
       <c r="J3">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="K3">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="L3">
-        <v>85.77</v>
+        <v>92.28</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>11.87</v>
+        <v>14.84</v>
       </c>
       <c r="C4">
-        <v>11.56</v>
+        <v>13.58</v>
       </c>
       <c r="D4">
-        <v>11.66</v>
+        <v>14.82</v>
       </c>
       <c r="E4">
-        <v>13.75</v>
+        <v>12.28</v>
       </c>
       <c r="F4">
-        <v>10.47</v>
+        <v>14.21</v>
       </c>
       <c r="G4">
-        <v>12.75</v>
+        <v>11.26</v>
       </c>
       <c r="H4">
-        <v>10.66</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I4">
-        <v>9.25</v>
+        <v>6.11</v>
       </c>
       <c r="J4">
-        <v>6.21</v>
+        <v>3.17</v>
       </c>
       <c r="K4">
-        <v>1.82</v>
+        <v>0.84</v>
       </c>
       <c r="L4">
-        <v>72.06</v>
+        <v>80.99000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>11.63</v>
+        <v>12.61</v>
       </c>
       <c r="C5">
-        <v>11.68</v>
+        <v>12.82</v>
       </c>
       <c r="D5">
-        <v>11.91</v>
+        <v>13.09</v>
       </c>
       <c r="E5">
-        <v>13.29</v>
+        <v>11.85</v>
       </c>
       <c r="F5">
-        <v>11.86</v>
+        <v>14.62</v>
       </c>
       <c r="G5">
-        <v>11.95</v>
+        <v>10.3</v>
       </c>
       <c r="H5">
-        <v>11.31</v>
+        <v>10.2</v>
       </c>
       <c r="I5">
-        <v>8.98</v>
+        <v>7.85</v>
       </c>
       <c r="J5">
-        <v>5.75</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="K5">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="L5">
-        <v>72.31999999999999</v>
+        <v>75.28999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>11.38</v>
+        <v>9.07</v>
       </c>
       <c r="C6">
-        <v>11.87</v>
+        <v>10.7</v>
       </c>
       <c r="D6">
-        <v>12.87</v>
+        <v>10.89</v>
       </c>
       <c r="E6">
-        <v>13.39</v>
+        <v>12.6</v>
       </c>
       <c r="F6">
-        <v>10.67</v>
+        <v>14.09</v>
       </c>
       <c r="G6">
-        <v>13.03</v>
+        <v>10.84</v>
       </c>
       <c r="H6">
-        <v>10.09</v>
+        <v>12.53</v>
       </c>
       <c r="I6">
-        <v>8.890000000000001</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="J6">
-        <v>5.92</v>
+        <v>6.81</v>
       </c>
       <c r="K6">
-        <v>1.89</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>73.21000000000001</v>
+        <v>68.19</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1546,37 +1549,37 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>9.300000000000001</v>
+        <v>6.61</v>
       </c>
       <c r="C7">
-        <v>10.5</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="D7">
-        <v>11.97</v>
+        <v>10.32</v>
       </c>
       <c r="E7">
-        <v>10.87</v>
+        <v>13.16</v>
       </c>
       <c r="F7">
-        <v>12.07</v>
+        <v>10.91</v>
       </c>
       <c r="G7">
-        <v>13.46</v>
+        <v>14.12</v>
       </c>
       <c r="H7">
-        <v>10.35</v>
+        <v>12.59</v>
       </c>
       <c r="I7">
-        <v>10.45</v>
+        <v>10.36</v>
       </c>
       <c r="J7">
-        <v>7.7</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="K7">
-        <v>3.330000000000001</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="L7">
-        <v>68.17</v>
+        <v>63.57999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1584,37 +1587,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9.09</v>
+        <v>6.29</v>
       </c>
       <c r="C8">
-        <v>9.520000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D8">
-        <v>12.22</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="E8">
-        <v>10.52</v>
+        <v>12.48</v>
       </c>
       <c r="F8">
-        <v>13.28</v>
+        <v>11.59</v>
       </c>
       <c r="G8">
-        <v>12.27</v>
+        <v>12.04</v>
       </c>
       <c r="H8">
-        <v>11.28</v>
+        <v>14.1</v>
       </c>
       <c r="I8">
-        <v>10.18</v>
+        <v>11.63</v>
       </c>
       <c r="J8">
-        <v>8.029999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="K8">
-        <v>3.61</v>
+        <v>4.78</v>
       </c>
       <c r="L8">
-        <v>66.89999999999999</v>
+        <v>59.63999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1622,37 +1625,37 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.57</v>
+        <v>1.14</v>
       </c>
       <c r="C9">
-        <v>4.279999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="D9">
-        <v>5.96</v>
+        <v>4.19</v>
       </c>
       <c r="E9">
-        <v>7.16</v>
+        <v>6.08</v>
       </c>
       <c r="F9">
-        <v>11.23</v>
+        <v>7.52</v>
       </c>
       <c r="G9">
-        <v>10.8</v>
+        <v>13.18</v>
       </c>
       <c r="H9">
-        <v>14.77</v>
+        <v>13.48</v>
       </c>
       <c r="I9">
-        <v>16.1</v>
+        <v>17.57</v>
       </c>
       <c r="J9">
-        <v>16.58</v>
+        <v>17.96</v>
       </c>
       <c r="K9">
-        <v>10.55</v>
+        <v>16.86</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>34.13</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1660,37 +1663,37 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="C10">
-        <v>1.77</v>
+        <v>1.23</v>
       </c>
       <c r="D10">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="E10">
-        <v>4.6</v>
+        <v>4.52</v>
       </c>
       <c r="F10">
-        <v>7.81</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="G10">
-        <v>8.98</v>
+        <v>11.29</v>
       </c>
       <c r="H10">
-        <v>14.22</v>
+        <v>13.7</v>
       </c>
       <c r="I10">
-        <v>18.13</v>
+        <v>19.62</v>
       </c>
       <c r="J10">
-        <v>21.46</v>
+        <v>19.1</v>
       </c>
       <c r="K10">
-        <v>19.5</v>
+        <v>19.54</v>
       </c>
       <c r="L10">
-        <v>26.69</v>
+        <v>28.04</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1701,34 +1704,34 @@
         <v>0.01</v>
       </c>
       <c r="C11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D11">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="E11">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="F11">
-        <v>0.63</v>
+        <v>1.28</v>
       </c>
       <c r="G11">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="H11">
-        <v>4.27</v>
+        <v>6.63</v>
       </c>
       <c r="I11">
-        <v>10.53</v>
+        <v>13.26</v>
       </c>
       <c r="J11">
-        <v>24.92</v>
+        <v>27.56</v>
       </c>
       <c r="K11">
-        <v>57.09</v>
+        <v>48.12</v>
       </c>
       <c r="L11">
-        <v>3.19</v>
+        <v>4.43</v>
       </c>
     </row>
   </sheetData>
@@ -1746,16 +1749,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1769,10 +1772,10 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1783,13 +1786,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1800,13 +1803,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1814,16 +1817,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1831,16 +1834,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1851,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1868,10 +1871,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1885,10 +1888,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -1902,13 +1905,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1919,13 +1922,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-26</v>
+        <v>-36</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1938,336 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="D7">
+        <v>-6</v>
+      </c>
+      <c r="E7">
+        <v>-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-8</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8">
+        <v>-6</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <v>-11</v>
+      </c>
+      <c r="H9">
+        <v>-18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-8</v>
+      </c>
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <v>-14</v>
+      </c>
+      <c r="G10">
+        <v>-19</v>
+      </c>
+      <c r="H10">
+        <v>-22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>-5</v>
+      </c>
+      <c r="C11">
+        <v>-11</v>
+      </c>
+      <c r="D11">
+        <v>-14</v>
+      </c>
+      <c r="E11">
+        <v>-11</v>
+      </c>
+      <c r="F11">
+        <v>-19</v>
+      </c>
+      <c r="G11">
+        <v>-26</v>
+      </c>
+      <c r="H11">
+        <v>-36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1943,321 +2275,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-2</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-6</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>-6</v>
-      </c>
-      <c r="D7">
-        <v>-6</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>-8</v>
-      </c>
-      <c r="C8">
-        <v>-5</v>
-      </c>
-      <c r="D8">
-        <v>-6</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>-4</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9">
-        <v>-11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>-8</v>
-      </c>
-      <c r="E10">
-        <v>-8</v>
-      </c>
-      <c r="F10">
-        <v>-14</v>
-      </c>
-      <c r="G10">
-        <v>-19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
-        <v>-11</v>
-      </c>
-      <c r="D11">
-        <v>-14</v>
-      </c>
-      <c r="E11">
-        <v>-11</v>
-      </c>
-      <c r="F11">
-        <v>-19</v>
-      </c>
-      <c r="G11">
-        <v>-26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2343,25 +2379,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>-6</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2369,25 +2405,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2395,25 +2431,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2421,25 +2457,51 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="61">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,28 +52,31 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,28 +136,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -176,6 +179,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -600,22 +606,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -624,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,31 +641,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,28 +676,28 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -702,34 +708,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -737,34 +743,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,31 +781,31 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -807,34 +813,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -842,34 +848,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -877,34 +883,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -912,34 +918,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -957,13 +963,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -974,10 +980,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -988,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1002,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1016,10 +1022,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1030,10 +1036,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1044,10 +1050,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1058,10 +1064,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1069,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1086,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1097,13 +1103,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1121,16 +1127,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1141,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1155,16 +1161,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="D3">
-        <v>-1.6</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1175,13 +1181,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="D4">
-        <v>0.2000000000000002</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1189,16 +1195,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999964</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1206,16 +1212,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D6">
-        <v>0.09999999999999964</v>
+        <v>-1.6</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1223,16 +1229,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D7">
-        <v>0.7000000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1243,13 +1249,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D8">
-        <v>0.7000000000000002</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1257,16 +1263,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>-1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1274,16 +1280,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D10">
-        <v>-0.7000000000000002</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1294,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1318,40 +1324,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1359,37 +1365,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.61</v>
+        <v>23.91</v>
       </c>
       <c r="C2">
-        <v>20.33</v>
+        <v>21.03</v>
       </c>
       <c r="D2">
-        <v>17.15</v>
+        <v>14.47</v>
       </c>
       <c r="E2">
-        <v>12.11</v>
+        <v>14.97</v>
       </c>
       <c r="F2">
-        <v>8.4</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="G2">
-        <v>6.83</v>
+        <v>6.65</v>
       </c>
       <c r="H2">
-        <v>3.64</v>
+        <v>5.34</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="J2">
-        <v>0.79</v>
+        <v>1.18</v>
       </c>
       <c r="K2">
-        <v>0.14</v>
+        <v>0.39</v>
       </c>
       <c r="L2">
-        <v>93.43000000000001</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1397,227 +1403,227 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.18</v>
+        <v>23.2</v>
       </c>
       <c r="C3">
-        <v>22.28</v>
+        <v>23.75</v>
       </c>
       <c r="D3">
-        <v>17.86</v>
+        <v>17.94</v>
       </c>
       <c r="E3">
-        <v>14.52</v>
+        <v>13.8</v>
       </c>
       <c r="F3">
-        <v>9.84</v>
+        <v>9.65</v>
       </c>
       <c r="G3">
-        <v>7.6</v>
+        <v>5.04</v>
       </c>
       <c r="H3">
-        <v>4.24</v>
+        <v>3.89</v>
       </c>
       <c r="I3">
-        <v>2.23</v>
+        <v>1.76</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>0.75</v>
       </c>
       <c r="K3">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="L3">
-        <v>92.28</v>
+        <v>93.38000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>14.84</v>
+        <v>17.77</v>
       </c>
       <c r="C4">
-        <v>13.58</v>
+        <v>14.19</v>
       </c>
       <c r="D4">
-        <v>14.82</v>
+        <v>13.4</v>
       </c>
       <c r="E4">
-        <v>12.28</v>
+        <v>15.46</v>
       </c>
       <c r="F4">
-        <v>14.21</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="G4">
-        <v>11.26</v>
+        <v>11.54</v>
       </c>
       <c r="H4">
-        <v>8.890000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="I4">
-        <v>6.11</v>
+        <v>4.92</v>
       </c>
       <c r="J4">
-        <v>3.17</v>
+        <v>3.7</v>
       </c>
       <c r="K4">
-        <v>0.84</v>
+        <v>1.43</v>
       </c>
       <c r="L4">
-        <v>80.99000000000001</v>
+        <v>81.54000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>12.61</v>
+        <v>11.72</v>
       </c>
       <c r="C5">
-        <v>12.82</v>
+        <v>10.63</v>
       </c>
       <c r="D5">
-        <v>13.09</v>
+        <v>14.02</v>
       </c>
       <c r="E5">
-        <v>11.85</v>
+        <v>10.58</v>
       </c>
       <c r="F5">
-        <v>14.62</v>
+        <v>11.67</v>
       </c>
       <c r="G5">
-        <v>10.3</v>
+        <v>14.03</v>
       </c>
       <c r="H5">
-        <v>10.2</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="I5">
-        <v>7.85</v>
+        <v>8.66</v>
       </c>
       <c r="J5">
-        <v>5.140000000000001</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="K5">
-        <v>1.52</v>
+        <v>3.66</v>
       </c>
       <c r="L5">
-        <v>75.28999999999999</v>
+        <v>72.65000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>9.07</v>
+        <v>11.69</v>
       </c>
       <c r="C6">
-        <v>10.7</v>
+        <v>10.33</v>
       </c>
       <c r="D6">
-        <v>10.89</v>
+        <v>13.82</v>
       </c>
       <c r="E6">
-        <v>12.6</v>
+        <v>12.67</v>
       </c>
       <c r="F6">
-        <v>14.09</v>
+        <v>10.15</v>
       </c>
       <c r="G6">
-        <v>10.84</v>
+        <v>14.2</v>
       </c>
       <c r="H6">
-        <v>12.53</v>
+        <v>8.99</v>
       </c>
       <c r="I6">
-        <v>9.370000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="J6">
-        <v>6.81</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L6">
-        <v>68.19</v>
+        <v>72.86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>6.61</v>
+        <v>4.97</v>
       </c>
       <c r="C7">
-        <v>8.459999999999999</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="D7">
-        <v>10.32</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="E7">
-        <v>13.16</v>
+        <v>8.08</v>
       </c>
       <c r="F7">
-        <v>10.91</v>
+        <v>13.75</v>
       </c>
       <c r="G7">
-        <v>14.12</v>
+        <v>12.9</v>
       </c>
       <c r="H7">
-        <v>12.59</v>
+        <v>10.1</v>
       </c>
       <c r="I7">
-        <v>10.36</v>
+        <v>14.18</v>
       </c>
       <c r="J7">
-        <v>8.609999999999999</v>
+        <v>10.53</v>
       </c>
       <c r="K7">
-        <v>4.859999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="L7">
-        <v>63.57999999999999</v>
+        <v>56.69</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>6.29</v>
+        <v>4.48</v>
       </c>
       <c r="C8">
-        <v>8.529999999999999</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="D8">
-        <v>8.709999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="E8">
-        <v>12.48</v>
+        <v>9.1</v>
       </c>
       <c r="F8">
-        <v>11.59</v>
+        <v>14.86</v>
       </c>
       <c r="G8">
-        <v>12.04</v>
+        <v>10.62</v>
       </c>
       <c r="H8">
-        <v>14.1</v>
+        <v>12.31</v>
       </c>
       <c r="I8">
-        <v>11.63</v>
+        <v>13.29</v>
       </c>
       <c r="J8">
-        <v>9.85</v>
+        <v>9.99</v>
       </c>
       <c r="K8">
-        <v>4.78</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="L8">
-        <v>59.63999999999999</v>
+        <v>55.61</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1625,37 +1631,37 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="C9">
-        <v>2.02</v>
+        <v>2.88</v>
       </c>
       <c r="D9">
-        <v>4.19</v>
+        <v>4.26</v>
       </c>
       <c r="E9">
-        <v>6.08</v>
+        <v>7.71</v>
       </c>
       <c r="F9">
-        <v>7.52</v>
+        <v>11.13</v>
       </c>
       <c r="G9">
-        <v>13.18</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="H9">
-        <v>13.48</v>
+        <v>15.61</v>
       </c>
       <c r="I9">
-        <v>17.57</v>
+        <v>14.9</v>
       </c>
       <c r="J9">
-        <v>17.96</v>
+        <v>15.04</v>
       </c>
       <c r="K9">
-        <v>16.86</v>
+        <v>17.91</v>
       </c>
       <c r="L9">
-        <v>34.13</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1663,37 +1669,37 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="C10">
-        <v>1.23</v>
+        <v>1.92</v>
       </c>
       <c r="D10">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="E10">
-        <v>4.52</v>
+        <v>6.1</v>
       </c>
       <c r="F10">
-        <v>7.539999999999999</v>
+        <v>7.32</v>
       </c>
       <c r="G10">
-        <v>11.29</v>
+        <v>9.41</v>
       </c>
       <c r="H10">
-        <v>13.7</v>
+        <v>16.81</v>
       </c>
       <c r="I10">
-        <v>19.62</v>
+        <v>15.82</v>
       </c>
       <c r="J10">
-        <v>19.1</v>
+        <v>18.39</v>
       </c>
       <c r="K10">
-        <v>19.54</v>
+        <v>20.52</v>
       </c>
       <c r="L10">
-        <v>28.04</v>
+        <v>28.46</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1701,37 +1707,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="C11">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="D11">
-        <v>0.15</v>
+        <v>0.58</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>1.53</v>
       </c>
       <c r="F11">
-        <v>1.28</v>
+        <v>2.41</v>
       </c>
       <c r="G11">
-        <v>2.54</v>
+        <v>6.49</v>
       </c>
       <c r="H11">
-        <v>6.63</v>
+        <v>10.51</v>
       </c>
       <c r="I11">
-        <v>13.26</v>
+        <v>16.02</v>
       </c>
       <c r="J11">
-        <v>27.56</v>
+        <v>27.14</v>
       </c>
       <c r="K11">
-        <v>48.12</v>
+        <v>34.97</v>
       </c>
       <c r="L11">
-        <v>4.43</v>
+        <v>11.36</v>
       </c>
     </row>
   </sheetData>
@@ -1749,16 +1755,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1769,13 +1775,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1786,13 +1792,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1803,13 +1809,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1817,16 +1823,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1834,16 +1840,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1851,16 +1857,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1874,10 +1880,10 @@
         <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1888,13 +1894,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1905,13 +1911,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-22</v>
+        <v>-24</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1922,10 +1928,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -1938,39 +1944,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1995,11 +2004,14 @@
       <c r="H2">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2024,11 +2036,14 @@
       <c r="H3">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2053,98 +2068,110 @@
       <c r="H4">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-6</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-6</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>-6</v>
-      </c>
-      <c r="D7">
-        <v>-6</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2169,11 +2196,14 @@
       <c r="H8">
         <v>-5</v>
       </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2198,11 +2228,14 @@
       <c r="H9">
         <v>-18</v>
       </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2227,11 +2260,14 @@
       <c r="H10">
         <v>-22</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2256,7 +2292,10 @@
       <c r="H11">
         <v>-36</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11">
+        <v>-35</v>
+      </c>
+      <c r="J11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2267,7 +2306,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2275,25 +2314,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2301,25 +2340,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
       <c r="F2">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2327,25 +2366,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>-2</v>
       </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
       <c r="G3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2353,25 +2392,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="F4">
-        <v>-19</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2379,25 +2418,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>-19</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2408,22 +2447,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2431,22 +2470,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
@@ -2457,25 +2496,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2486,21 +2525,47 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>-6</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="63">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,31 +52,34 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,30 +139,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓1</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -630,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -644,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -656,13 +662,13 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -676,19 +682,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -708,34 +714,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -752,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -764,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -787,25 +793,25 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -819,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -828,19 +834,19 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -854,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -869,13 +875,13 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -883,22 +889,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -907,10 +913,10 @@
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -918,34 +924,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -963,13 +969,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -980,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -991,13 +997,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1005,13 +1011,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1019,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1033,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1050,7 +1056,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1064,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1078,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1089,13 +1095,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1103,13 +1109,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1133,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1147,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="D2">
-        <v>-0.2999999999999998</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1161,13 +1167,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1178,13 +1184,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="D4">
-        <v>0.09999999999999964</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1195,13 +1201,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1212,16 +1218,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D6">
-        <v>-1.6</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1229,16 +1235,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D7">
-        <v>0.2000000000000002</v>
+        <v>-1.4</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1249,13 +1255,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D8">
-        <v>0.8999999999999999</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1266,13 +1272,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D9">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1300,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1324,40 +1330,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1365,37 +1371,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.91</v>
+        <v>25.32</v>
       </c>
       <c r="C2">
-        <v>21.03</v>
+        <v>20.21</v>
       </c>
       <c r="D2">
-        <v>14.47</v>
+        <v>17.82</v>
       </c>
       <c r="E2">
-        <v>14.97</v>
+        <v>8.67</v>
       </c>
       <c r="F2">
-        <v>9.879999999999999</v>
+        <v>11.84</v>
       </c>
       <c r="G2">
-        <v>6.65</v>
+        <v>7.870000000000001</v>
       </c>
       <c r="H2">
-        <v>5.34</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
-        <v>2.18</v>
+        <v>3.02</v>
       </c>
       <c r="J2">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="K2">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="L2">
-        <v>90.91</v>
+        <v>91.73</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1403,37 +1409,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23.2</v>
+        <v>18.96</v>
       </c>
       <c r="C3">
-        <v>23.75</v>
+        <v>21.27</v>
       </c>
       <c r="D3">
-        <v>17.94</v>
+        <v>20.95</v>
       </c>
       <c r="E3">
-        <v>13.8</v>
+        <v>12.47</v>
       </c>
       <c r="F3">
-        <v>9.65</v>
+        <v>10.14</v>
       </c>
       <c r="G3">
-        <v>5.04</v>
+        <v>8.9</v>
       </c>
       <c r="H3">
-        <v>3.89</v>
+        <v>3.28</v>
       </c>
       <c r="I3">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="J3">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="K3">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="L3">
-        <v>93.38000000000001</v>
+        <v>92.69000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1441,75 +1447,75 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>17.77</v>
+        <v>15.48</v>
       </c>
       <c r="C4">
-        <v>14.19</v>
+        <v>16.21</v>
       </c>
       <c r="D4">
-        <v>13.4</v>
+        <v>11.48</v>
       </c>
       <c r="E4">
-        <v>15.46</v>
+        <v>10.1</v>
       </c>
       <c r="F4">
-        <v>9.180000000000001</v>
+        <v>16.67</v>
       </c>
       <c r="G4">
-        <v>11.54</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="H4">
-        <v>8.41</v>
+        <v>7.69</v>
       </c>
       <c r="I4">
-        <v>4.92</v>
+        <v>7.79</v>
       </c>
       <c r="J4">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="K4">
-        <v>1.43</v>
+        <v>2.48</v>
       </c>
       <c r="L4">
-        <v>81.54000000000001</v>
+        <v>78.41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>11.72</v>
+        <v>11.17</v>
       </c>
       <c r="C5">
-        <v>10.63</v>
+        <v>10.88</v>
       </c>
       <c r="D5">
-        <v>14.02</v>
+        <v>9.08</v>
       </c>
       <c r="E5">
-        <v>10.58</v>
+        <v>15.95</v>
       </c>
       <c r="F5">
-        <v>11.67</v>
+        <v>11.96</v>
       </c>
       <c r="G5">
-        <v>14.03</v>
+        <v>7.64</v>
       </c>
       <c r="H5">
-        <v>8.029999999999999</v>
+        <v>14.01</v>
       </c>
       <c r="I5">
-        <v>8.66</v>
+        <v>7.75</v>
       </c>
       <c r="J5">
-        <v>7.000000000000001</v>
+        <v>6.11</v>
       </c>
       <c r="K5">
-        <v>3.66</v>
+        <v>5.45</v>
       </c>
       <c r="L5">
-        <v>72.65000000000001</v>
+        <v>66.67999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1517,113 +1523,113 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>11.69</v>
+        <v>10.73</v>
       </c>
       <c r="C6">
-        <v>10.33</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D6">
-        <v>13.82</v>
+        <v>11.27</v>
       </c>
       <c r="E6">
-        <v>12.67</v>
+        <v>16.15</v>
       </c>
       <c r="F6">
-        <v>10.15</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="G6">
-        <v>14.2</v>
+        <v>10.26</v>
       </c>
       <c r="H6">
-        <v>8.99</v>
+        <v>14.14</v>
       </c>
       <c r="I6">
-        <v>8.27</v>
+        <v>7.19</v>
       </c>
       <c r="J6">
-        <v>6.279999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="K6">
-        <v>3.6</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="L6">
-        <v>72.86</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>4.97</v>
+        <v>9.09</v>
       </c>
       <c r="C7">
-        <v>7.290000000000001</v>
+        <v>10.62</v>
       </c>
       <c r="D7">
-        <v>9.700000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="E7">
-        <v>8.08</v>
+        <v>13.52</v>
       </c>
       <c r="F7">
-        <v>13.75</v>
+        <v>14.38</v>
       </c>
       <c r="G7">
-        <v>12.9</v>
+        <v>7.48</v>
       </c>
       <c r="H7">
-        <v>10.1</v>
+        <v>12.53</v>
       </c>
       <c r="I7">
-        <v>14.18</v>
+        <v>11.44</v>
       </c>
       <c r="J7">
-        <v>10.53</v>
+        <v>6.99</v>
       </c>
       <c r="K7">
-        <v>8.5</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="L7">
-        <v>56.69</v>
+        <v>63.26000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4.48</v>
+        <v>7.07</v>
       </c>
       <c r="C8">
-        <v>7.720000000000001</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="D8">
-        <v>8.83</v>
+        <v>11.08</v>
       </c>
       <c r="E8">
-        <v>9.1</v>
+        <v>12.76</v>
       </c>
       <c r="F8">
-        <v>14.86</v>
+        <v>6.64</v>
       </c>
       <c r="G8">
-        <v>10.62</v>
+        <v>14.14</v>
       </c>
       <c r="H8">
-        <v>12.31</v>
+        <v>13.66</v>
       </c>
       <c r="I8">
-        <v>13.29</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J8">
-        <v>9.99</v>
+        <v>10.22</v>
       </c>
       <c r="K8">
-        <v>8.799999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="L8">
-        <v>55.61</v>
+        <v>58.98</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1631,37 +1637,37 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="C9">
-        <v>2.88</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
-        <v>4.26</v>
+        <v>5.19</v>
       </c>
       <c r="E9">
-        <v>7.71</v>
+        <v>4.79</v>
       </c>
       <c r="F9">
-        <v>11.13</v>
+        <v>6.370000000000001</v>
       </c>
       <c r="G9">
-        <v>9.120000000000001</v>
+        <v>14.23</v>
       </c>
       <c r="H9">
-        <v>15.61</v>
+        <v>10.08</v>
       </c>
       <c r="I9">
-        <v>14.9</v>
+        <v>13.1</v>
       </c>
       <c r="J9">
-        <v>15.04</v>
+        <v>19.23</v>
       </c>
       <c r="K9">
-        <v>17.91</v>
+        <v>23.83</v>
       </c>
       <c r="L9">
-        <v>36.54</v>
+        <v>33.76000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1669,37 +1675,37 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.73</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="C10">
-        <v>1.92</v>
+        <v>1.34</v>
       </c>
       <c r="D10">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="E10">
-        <v>6.1</v>
+        <v>3.11</v>
       </c>
       <c r="F10">
-        <v>7.32</v>
+        <v>6.9</v>
       </c>
       <c r="G10">
-        <v>9.41</v>
+        <v>12.13</v>
       </c>
       <c r="H10">
-        <v>16.81</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I10">
-        <v>15.82</v>
+        <v>18.28</v>
       </c>
       <c r="J10">
-        <v>18.39</v>
+        <v>20.99</v>
       </c>
       <c r="K10">
-        <v>20.52</v>
+        <v>24.12</v>
       </c>
       <c r="L10">
-        <v>28.46</v>
+        <v>27.25</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1707,37 +1713,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="C11">
-        <v>0.26</v>
+        <v>0.75</v>
       </c>
       <c r="D11">
-        <v>0.58</v>
+        <v>1.87</v>
       </c>
       <c r="E11">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="F11">
-        <v>2.41</v>
+        <v>6.84</v>
       </c>
       <c r="G11">
-        <v>6.49</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H11">
-        <v>10.51</v>
+        <v>11.85</v>
       </c>
       <c r="I11">
-        <v>16.02</v>
+        <v>21.61</v>
       </c>
       <c r="J11">
-        <v>27.14</v>
+        <v>24.34</v>
       </c>
       <c r="K11">
-        <v>34.97</v>
+        <v>21.16</v>
       </c>
       <c r="L11">
-        <v>11.36</v>
+        <v>21.04</v>
       </c>
     </row>
   </sheetData>
@@ -1755,16 +1761,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1775,13 +1781,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1792,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1809,13 +1815,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1826,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1846,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -1860,13 +1866,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1877,13 +1883,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1894,13 +1900,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1911,13 +1917,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-24</v>
+        <v>-29</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1928,13 +1934,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-35</v>
+        <v>-31</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1944,42 +1950,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2005,13 +2014,16 @@
         <v>22</v>
       </c>
       <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2037,13 +2049,16 @@
         <v>18</v>
       </c>
       <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2071,11 +2086,14 @@
       <c r="I4">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2103,11 +2121,14 @@
       <c r="I5">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2135,11 +2156,14 @@
       <c r="I6">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2167,11 +2191,14 @@
       <c r="I7">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2197,13 +2224,16 @@
         <v>-5</v>
       </c>
       <c r="I8">
-        <v>-5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>-6</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2229,13 +2259,16 @@
         <v>-18</v>
       </c>
       <c r="I9">
-        <v>-17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>-16</v>
+      </c>
+      <c r="J9">
+        <v>-23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2263,11 +2296,14 @@
       <c r="I10">
         <v>-24</v>
       </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10">
+        <v>-29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2295,8 +2331,11 @@
       <c r="I11">
         <v>-35</v>
       </c>
-      <c r="J11" t="s">
-        <v>44</v>
+      <c r="J11">
+        <v>-31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +2345,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2314,25 +2353,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2418,25 +2457,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>-11</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2444,25 +2483,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>-19</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2473,22 +2512,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2496,22 +2535,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
         <v>3</v>
@@ -2522,51 +2561,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
-        <v>-6</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="63">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,34 +52,34 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
-  </si>
-  <si>
-    <t>9-0-0</t>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>0-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,28 +139,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -612,10 +612,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -624,19 +624,19 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -650,28 +650,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -682,31 +682,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -717,10 +717,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -729,19 +729,19 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -749,34 +749,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -787,31 +787,31 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -819,34 +819,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -854,34 +854,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -889,34 +889,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -924,34 +924,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -986,10 +986,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1000,10 +1000,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1011,10 +1011,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1025,10 +1025,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1039,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1056,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1067,13 +1067,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1081,10 +1081,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1095,13 +1095,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D2">
-        <v>-0.4000000000000004</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1167,13 +1167,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1184,16 +1184,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="D4">
-        <v>-0.4000000000000004</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D5">
-        <v>0.2000000000000002</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D6">
-        <v>0.7999999999999998</v>
+        <v>-1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="D7">
-        <v>-1.4</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1255,13 +1255,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="D8">
-        <v>0.4000000000000004</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D9">
-        <v>-1.1</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D10">
-        <v>-0.2000000000000002</v>
+        <v>-1.1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1306,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D11">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1371,227 +1371,227 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32</v>
+        <v>19.2</v>
       </c>
       <c r="C2">
-        <v>20.21</v>
+        <v>14.93</v>
       </c>
       <c r="D2">
-        <v>17.82</v>
+        <v>17.86</v>
       </c>
       <c r="E2">
-        <v>8.67</v>
+        <v>17.81</v>
       </c>
       <c r="F2">
-        <v>11.84</v>
+        <v>5.65</v>
       </c>
       <c r="G2">
-        <v>7.870000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="I2">
-        <v>3.02</v>
+        <v>3.17</v>
       </c>
       <c r="J2">
-        <v>1.13</v>
+        <v>2.22</v>
       </c>
       <c r="K2">
-        <v>0.72</v>
+        <v>1.64</v>
       </c>
       <c r="L2">
-        <v>91.73</v>
+        <v>83.60000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>18.96</v>
+        <v>15.26</v>
       </c>
       <c r="C3">
-        <v>21.27</v>
+        <v>11.68</v>
       </c>
       <c r="D3">
-        <v>20.95</v>
+        <v>19.55</v>
       </c>
       <c r="E3">
-        <v>12.47</v>
+        <v>11.52</v>
       </c>
       <c r="F3">
-        <v>10.14</v>
+        <v>5.26</v>
       </c>
       <c r="G3">
-        <v>8.9</v>
+        <v>13.03</v>
       </c>
       <c r="H3">
-        <v>3.28</v>
+        <v>11.35</v>
       </c>
       <c r="I3">
-        <v>2.62</v>
+        <v>4.14</v>
       </c>
       <c r="J3">
-        <v>0.96</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="K3">
-        <v>0.45</v>
+        <v>3.36</v>
       </c>
       <c r="L3">
-        <v>92.69000000000001</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>15.48</v>
+        <v>14.14</v>
       </c>
       <c r="C4">
-        <v>16.21</v>
+        <v>13.64</v>
       </c>
       <c r="D4">
-        <v>11.48</v>
+        <v>15.78</v>
       </c>
       <c r="E4">
-        <v>10.1</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="F4">
-        <v>16.67</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="G4">
-        <v>8.469999999999999</v>
+        <v>17.47</v>
       </c>
       <c r="H4">
-        <v>7.69</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="I4">
-        <v>7.79</v>
+        <v>4.87</v>
       </c>
       <c r="J4">
-        <v>3.63</v>
+        <v>6.9</v>
       </c>
       <c r="K4">
-        <v>2.48</v>
+        <v>4.58</v>
       </c>
       <c r="L4">
-        <v>78.41</v>
+        <v>74.84999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>11.17</v>
+        <v>13.57</v>
       </c>
       <c r="C5">
-        <v>10.88</v>
+        <v>17.24</v>
       </c>
       <c r="D5">
-        <v>9.08</v>
+        <v>14.17</v>
       </c>
       <c r="E5">
-        <v>15.95</v>
+        <v>21.73</v>
       </c>
       <c r="F5">
-        <v>11.96</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="G5">
-        <v>7.64</v>
+        <v>6.73</v>
       </c>
       <c r="H5">
-        <v>14.01</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I5">
-        <v>7.75</v>
+        <v>3.46</v>
       </c>
       <c r="J5">
-        <v>6.11</v>
+        <v>2.16</v>
       </c>
       <c r="K5">
-        <v>5.45</v>
+        <v>1.13</v>
       </c>
       <c r="L5">
-        <v>66.67999999999999</v>
+        <v>83.39</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>10.73</v>
+        <v>11.81</v>
       </c>
       <c r="C6">
-        <v>9.529999999999999</v>
+        <v>13.49</v>
       </c>
       <c r="D6">
-        <v>11.27</v>
+        <v>8.5</v>
       </c>
       <c r="E6">
-        <v>16.15</v>
+        <v>5.66</v>
       </c>
       <c r="F6">
-        <v>8.260000000000002</v>
+        <v>18.3</v>
       </c>
       <c r="G6">
-        <v>10.26</v>
+        <v>13.24</v>
       </c>
       <c r="H6">
-        <v>14.14</v>
+        <v>3.85</v>
       </c>
       <c r="I6">
-        <v>7.19</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="J6">
-        <v>6.4</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="K6">
-        <v>6.069999999999999</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="L6">
-        <v>66.2</v>
+        <v>70.99999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>9.09</v>
+        <v>11.62</v>
       </c>
       <c r="C7">
-        <v>10.62</v>
+        <v>12.87</v>
       </c>
       <c r="D7">
-        <v>8.17</v>
+        <v>11.8</v>
       </c>
       <c r="E7">
-        <v>13.52</v>
+        <v>4.26</v>
       </c>
       <c r="F7">
-        <v>14.38</v>
+        <v>12.73</v>
       </c>
       <c r="G7">
-        <v>7.48</v>
+        <v>17.93</v>
       </c>
       <c r="H7">
-        <v>12.53</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="I7">
-        <v>11.44</v>
+        <v>7.12</v>
       </c>
       <c r="J7">
-        <v>6.99</v>
+        <v>9.41</v>
       </c>
       <c r="K7">
-        <v>5.779999999999999</v>
+        <v>6.65</v>
       </c>
       <c r="L7">
-        <v>63.26000000000001</v>
+        <v>71.21000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1599,37 +1599,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.07</v>
+        <v>10.8</v>
       </c>
       <c r="C8">
-        <v>7.290000000000001</v>
+        <v>11.04</v>
       </c>
       <c r="D8">
-        <v>11.08</v>
+        <v>6.05</v>
       </c>
       <c r="E8">
-        <v>12.76</v>
+        <v>10.65</v>
       </c>
       <c r="F8">
-        <v>6.64</v>
+        <v>18.6</v>
       </c>
       <c r="G8">
-        <v>14.14</v>
+        <v>7.249999999999999</v>
       </c>
       <c r="H8">
-        <v>13.66</v>
+        <v>4.73</v>
       </c>
       <c r="I8">
-        <v>7.199999999999999</v>
+        <v>12.59</v>
       </c>
       <c r="J8">
-        <v>10.22</v>
+        <v>9.74</v>
       </c>
       <c r="K8">
-        <v>9.94</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L8">
-        <v>58.98</v>
+        <v>64.39</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1637,37 +1637,37 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.28</v>
+        <v>1.8</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>2.34</v>
       </c>
       <c r="D9">
-        <v>5.19</v>
+        <v>2.17</v>
       </c>
       <c r="E9">
-        <v>4.79</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F9">
-        <v>6.370000000000001</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>14.23</v>
+        <v>3.57</v>
       </c>
       <c r="H9">
-        <v>10.08</v>
+        <v>10.65</v>
       </c>
       <c r="I9">
-        <v>13.1</v>
+        <v>19.99</v>
       </c>
       <c r="J9">
-        <v>19.23</v>
+        <v>13.93</v>
       </c>
       <c r="K9">
-        <v>23.83</v>
+        <v>27.17</v>
       </c>
       <c r="L9">
-        <v>33.76000000000001</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1675,37 +1675,37 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.6799999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="C10">
-        <v>1.34</v>
+        <v>1.83</v>
       </c>
       <c r="D10">
-        <v>3.09</v>
+        <v>2.42</v>
       </c>
       <c r="E10">
-        <v>3.11</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="F10">
-        <v>6.9</v>
+        <v>7.53</v>
       </c>
       <c r="G10">
-        <v>12.13</v>
+        <v>4.89</v>
       </c>
       <c r="H10">
-        <v>9.359999999999999</v>
+        <v>17.12</v>
       </c>
       <c r="I10">
-        <v>18.28</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>20.99</v>
+        <v>17.12</v>
       </c>
       <c r="K10">
-        <v>24.12</v>
+        <v>22.01</v>
       </c>
       <c r="L10">
-        <v>27.25</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1713,37 +1713,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="D11">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="E11">
-        <v>2.48</v>
+        <v>5.75</v>
       </c>
       <c r="F11">
-        <v>6.84</v>
+        <v>4.62</v>
       </c>
       <c r="G11">
-        <v>8.880000000000001</v>
+        <v>7.739999999999999</v>
       </c>
       <c r="H11">
-        <v>11.85</v>
+        <v>18.66</v>
       </c>
       <c r="I11">
-        <v>21.61</v>
+        <v>17.78</v>
       </c>
       <c r="J11">
-        <v>24.34</v>
+        <v>24.55</v>
       </c>
       <c r="K11">
-        <v>21.16</v>
+        <v>17.76</v>
       </c>
       <c r="L11">
-        <v>21.04</v>
+        <v>21.25</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1784,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1815,10 +1815,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1849,13 +1849,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1866,13 +1866,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1883,13 +1883,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1900,13 +1900,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1917,13 +1917,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1934,13 +1934,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1950,45 +1950,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2019,11 +2022,14 @@
       <c r="J2">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2054,11 +2060,14 @@
       <c r="J3">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2089,11 +2098,14 @@
       <c r="J4">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2124,11 +2136,14 @@
       <c r="J5">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2159,11 +2174,14 @@
       <c r="J6">
         <v>8</v>
       </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2194,11 +2212,14 @@
       <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2229,11 +2250,14 @@
       <c r="J8">
         <v>-1</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>-6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2264,11 +2288,14 @@
       <c r="J9">
         <v>-23</v>
       </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>-22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2299,11 +2326,14 @@
       <c r="J10">
         <v>-29</v>
       </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2334,8 +2364,11 @@
       <c r="J11">
         <v>-31</v>
       </c>
-      <c r="K11" t="s">
-        <v>46</v>
+      <c r="K11">
+        <v>-32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2345,7 +2378,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2379,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>-24</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2405,25 +2438,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
       <c r="F3">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2431,25 +2464,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
       <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>-2</v>
       </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
       <c r="G4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2457,25 +2490,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2483,25 +2516,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>-11</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2509,77 +2542,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>-19</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="65">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,34 +52,37 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>0-10-0</t>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>0-11-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,27 +142,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -612,31 +618,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -644,34 +650,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -682,31 +688,31 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -714,34 +720,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -749,34 +755,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -787,31 +793,31 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -819,19 +825,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -840,13 +846,13 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -854,34 +860,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -889,16 +895,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -907,16 +913,16 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -924,34 +930,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -969,13 +975,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -986,10 +992,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -997,13 +1003,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1011,10 +1017,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1025,13 +1031,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1039,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1056,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1067,13 +1073,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1081,13 +1087,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1098,10 +1104,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1112,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1133,16 +1139,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1153,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D2">
-        <v>-0.9000000000000004</v>
+        <v>-1.2</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1167,16 +1173,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="D3">
-        <v>-0.7000000000000002</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1184,16 +1190,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D4">
-        <v>0.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1201,16 +1207,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D5">
-        <v>0.7999999999999998</v>
+        <v>-1.6</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1218,13 +1224,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="D6">
-        <v>-1.5</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1235,16 +1241,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1252,16 +1258,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D8">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1272,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D9">
-        <v>0.2999999999999998</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1289,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D10">
-        <v>-1.1</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1306,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D11">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1330,116 +1336,116 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>19.2</v>
+        <v>18.07</v>
       </c>
       <c r="C2">
-        <v>14.93</v>
+        <v>5.99</v>
       </c>
       <c r="D2">
-        <v>17.86</v>
+        <v>15.58</v>
       </c>
       <c r="E2">
-        <v>17.81</v>
+        <v>19.57</v>
       </c>
       <c r="F2">
-        <v>5.65</v>
+        <v>5.24</v>
       </c>
       <c r="G2">
-        <v>8.15</v>
+        <v>1.88</v>
       </c>
       <c r="H2">
-        <v>9.370000000000001</v>
+        <v>10.37</v>
       </c>
       <c r="I2">
-        <v>3.17</v>
+        <v>12.62</v>
       </c>
       <c r="J2">
-        <v>2.22</v>
+        <v>4.26</v>
       </c>
       <c r="K2">
-        <v>1.64</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="L2">
-        <v>83.60000000000001</v>
+        <v>66.33</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>15.26</v>
+        <v>16.34</v>
       </c>
       <c r="C3">
-        <v>11.68</v>
+        <v>22.67</v>
       </c>
       <c r="D3">
-        <v>19.55</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="E3">
-        <v>11.52</v>
+        <v>10.02</v>
       </c>
       <c r="F3">
-        <v>5.26</v>
+        <v>22.25</v>
       </c>
       <c r="G3">
-        <v>13.03</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="H3">
-        <v>11.35</v>
+        <v>2.05</v>
       </c>
       <c r="I3">
-        <v>4.14</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="J3">
-        <v>4.850000000000001</v>
+        <v>4.33</v>
       </c>
       <c r="K3">
-        <v>3.36</v>
+        <v>1.98</v>
       </c>
       <c r="L3">
-        <v>76.3</v>
+        <v>86.32000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1447,189 +1453,189 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>14.14</v>
+        <v>15.49</v>
       </c>
       <c r="C4">
-        <v>13.64</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="D4">
-        <v>15.78</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E4">
-        <v>6.460000000000001</v>
+        <v>22.06</v>
       </c>
       <c r="F4">
-        <v>7.359999999999999</v>
+        <v>10.93</v>
       </c>
       <c r="G4">
-        <v>17.47</v>
+        <v>1.74</v>
       </c>
       <c r="H4">
-        <v>8.799999999999999</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="I4">
-        <v>4.87</v>
+        <v>13.61</v>
       </c>
       <c r="J4">
-        <v>6.9</v>
+        <v>5.86</v>
       </c>
       <c r="K4">
-        <v>4.58</v>
+        <v>6.02</v>
       </c>
       <c r="L4">
-        <v>74.84999999999999</v>
+        <v>66.73</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>13.57</v>
+        <v>12.71</v>
       </c>
       <c r="C5">
-        <v>17.24</v>
+        <v>7.1</v>
       </c>
       <c r="D5">
-        <v>14.17</v>
+        <v>18.4</v>
       </c>
       <c r="E5">
-        <v>21.73</v>
+        <v>12.01</v>
       </c>
       <c r="F5">
-        <v>9.950000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="G5">
-        <v>6.73</v>
+        <v>4.3</v>
       </c>
       <c r="H5">
-        <v>9.859999999999999</v>
+        <v>16.64</v>
       </c>
       <c r="I5">
-        <v>3.46</v>
+        <v>12.76</v>
       </c>
       <c r="J5">
-        <v>2.16</v>
+        <v>3.7</v>
       </c>
       <c r="K5">
-        <v>1.13</v>
+        <v>10.41</v>
       </c>
       <c r="L5">
-        <v>83.39</v>
+        <v>56.48999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>11.81</v>
+        <v>12.62</v>
       </c>
       <c r="C6">
-        <v>13.49</v>
+        <v>9.34</v>
       </c>
       <c r="D6">
-        <v>8.5</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="E6">
-        <v>5.66</v>
+        <v>18.48</v>
       </c>
       <c r="F6">
-        <v>18.3</v>
+        <v>19.17</v>
       </c>
       <c r="G6">
-        <v>13.24</v>
+        <v>3.5</v>
       </c>
       <c r="H6">
-        <v>3.85</v>
+        <v>4.89</v>
       </c>
       <c r="I6">
-        <v>8.880000000000001</v>
+        <v>13.41</v>
       </c>
       <c r="J6">
-        <v>9.120000000000001</v>
+        <v>7.870000000000001</v>
       </c>
       <c r="K6">
-        <v>7.149999999999999</v>
+        <v>6.32</v>
       </c>
       <c r="L6">
-        <v>70.99999999999999</v>
+        <v>67.51000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>11.62</v>
+        <v>10.46</v>
       </c>
       <c r="C7">
-        <v>12.87</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="D7">
-        <v>11.8</v>
+        <v>15.79</v>
       </c>
       <c r="E7">
-        <v>4.26</v>
+        <v>6.79</v>
       </c>
       <c r="F7">
-        <v>12.73</v>
+        <v>1.21</v>
       </c>
       <c r="G7">
-        <v>17.93</v>
+        <v>9.99</v>
       </c>
       <c r="H7">
-        <v>5.609999999999999</v>
+        <v>20.89</v>
       </c>
       <c r="I7">
-        <v>7.12</v>
+        <v>8.83</v>
       </c>
       <c r="J7">
-        <v>9.41</v>
+        <v>3.58</v>
       </c>
       <c r="K7">
-        <v>6.65</v>
+        <v>13.59</v>
       </c>
       <c r="L7">
-        <v>71.21000000000001</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>10.8</v>
+        <v>8.42</v>
       </c>
       <c r="C8">
-        <v>11.04</v>
+        <v>26.73</v>
       </c>
       <c r="D8">
-        <v>6.05</v>
+        <v>16.18</v>
       </c>
       <c r="E8">
-        <v>10.65</v>
+        <v>6.01</v>
       </c>
       <c r="F8">
-        <v>18.6</v>
+        <v>18.45</v>
       </c>
       <c r="G8">
-        <v>7.249999999999999</v>
+        <v>13.49</v>
       </c>
       <c r="H8">
-        <v>4.73</v>
+        <v>2.47</v>
       </c>
       <c r="I8">
-        <v>12.59</v>
+        <v>3.62</v>
       </c>
       <c r="J8">
-        <v>9.74</v>
+        <v>3.32</v>
       </c>
       <c r="K8">
-        <v>8.550000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="L8">
-        <v>64.39</v>
+        <v>89.27999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1637,37 +1643,37 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.8</v>
+        <v>2.61</v>
       </c>
       <c r="C9">
-        <v>2.34</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="D9">
-        <v>2.17</v>
+        <v>6.19</v>
       </c>
       <c r="E9">
-        <v>8.380000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="G9">
-        <v>3.57</v>
+        <v>18.76</v>
       </c>
       <c r="H9">
-        <v>10.65</v>
+        <v>17.41</v>
       </c>
       <c r="I9">
-        <v>19.99</v>
+        <v>4.56</v>
       </c>
       <c r="J9">
-        <v>13.93</v>
+        <v>13.71</v>
       </c>
       <c r="K9">
-        <v>27.17</v>
+        <v>26.82</v>
       </c>
       <c r="L9">
-        <v>28.26</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1675,37 +1681,37 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>1.3</v>
+        <v>2.56</v>
       </c>
       <c r="C10">
-        <v>1.83</v>
+        <v>4.81</v>
       </c>
       <c r="D10">
-        <v>2.42</v>
+        <v>5.65</v>
       </c>
       <c r="E10">
+        <v>1.84</v>
+      </c>
+      <c r="F10">
         <v>7.779999999999999</v>
       </c>
-      <c r="F10">
-        <v>7.53</v>
-      </c>
       <c r="G10">
-        <v>4.89</v>
+        <v>21.5</v>
       </c>
       <c r="H10">
-        <v>17.12</v>
+        <v>11.05</v>
       </c>
       <c r="I10">
-        <v>18</v>
+        <v>5.92</v>
       </c>
       <c r="J10">
-        <v>17.12</v>
+        <v>22.41</v>
       </c>
       <c r="K10">
-        <v>22.01</v>
+        <v>16.48</v>
       </c>
       <c r="L10">
-        <v>25.75</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1713,37 +1719,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="C11">
-        <v>0.9400000000000001</v>
+        <v>2.05</v>
       </c>
       <c r="D11">
-        <v>1.7</v>
+        <v>2.17</v>
       </c>
       <c r="E11">
-        <v>5.75</v>
+        <v>1.33</v>
       </c>
       <c r="F11">
-        <v>4.62</v>
+        <v>10.1</v>
       </c>
       <c r="G11">
-        <v>7.739999999999999</v>
+        <v>16.22</v>
       </c>
       <c r="H11">
-        <v>18.66</v>
+        <v>6.45</v>
       </c>
       <c r="I11">
-        <v>17.78</v>
+        <v>19.35</v>
       </c>
       <c r="J11">
-        <v>24.55</v>
+        <v>30.96</v>
       </c>
       <c r="K11">
-        <v>17.76</v>
+        <v>10.65</v>
       </c>
       <c r="L11">
-        <v>21.25</v>
+        <v>32.59</v>
       </c>
     </row>
   </sheetData>
@@ -1761,16 +1767,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1781,13 +1787,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1798,13 +1804,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1815,13 +1821,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1832,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1852,10 +1858,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1869,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1883,13 +1889,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1900,13 +1906,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1917,10 +1923,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -1934,13 +1940,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-32</v>
+        <v>-35</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1950,48 +1956,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2025,11 +2034,14 @@
       <c r="K2">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2063,11 +2075,14 @@
       <c r="K3">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2101,11 +2116,14 @@
       <c r="K4">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2139,11 +2157,14 @@
       <c r="K5">
         <v>11</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2177,11 +2198,14 @@
       <c r="K6">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2215,11 +2239,14 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2253,11 +2280,14 @@
       <c r="K8">
         <v>-6</v>
       </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2291,11 +2321,14 @@
       <c r="K9">
         <v>-22</v>
       </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>-23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2329,11 +2362,14 @@
       <c r="K10">
         <v>-30</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>-31</v>
+      </c>
+      <c r="M10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2367,8 +2403,11 @@
       <c r="K11">
         <v>-32</v>
       </c>
-      <c r="L11" t="s">
-        <v>45</v>
+      <c r="L11">
+        <v>-35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2378,7 +2417,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2386,25 +2425,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2535,32 +2574,6 @@
       </c>
       <c r="H6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>-11</v>
-      </c>
-      <c r="F7">
-        <v>-19</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="67">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,37 +52,37 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>0-11-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,27 +142,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -618,10 +624,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -630,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -656,19 +662,19 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -688,10 +694,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -700,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -723,31 +729,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -758,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -770,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -796,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -828,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
         <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -863,28 +869,28 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -895,34 +901,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -930,34 +936,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -992,10 +998,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1003,13 +1009,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1017,13 +1023,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1031,13 +1037,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1045,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1059,13 +1065,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>5.6</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1076,10 +1082,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1090,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1104,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1159,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="D2">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1176,13 +1182,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="D3">
-        <v>0.2999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1190,16 +1196,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1207,16 +1213,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1224,16 +1230,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D6">
-        <v>0.4000000000000004</v>
+        <v>-1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1244,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1261,10 +1267,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="D8">
-        <v>0.4000000000000004</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1275,16 +1281,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D9">
-        <v>0.7000000000000002</v>
+        <v>-1.1</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1292,13 +1298,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D10">
-        <v>-0.7999999999999998</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1312,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D11">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1377,379 +1383,379 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>18.07</v>
+        <v>20.84</v>
       </c>
       <c r="C2">
-        <v>5.99</v>
+        <v>10.71</v>
       </c>
       <c r="D2">
-        <v>15.58</v>
+        <v>0.65</v>
       </c>
       <c r="E2">
-        <v>19.57</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="F2">
-        <v>5.24</v>
+        <v>14.85</v>
       </c>
       <c r="G2">
-        <v>1.88</v>
+        <v>28.68</v>
       </c>
       <c r="H2">
-        <v>10.37</v>
+        <v>4.5</v>
       </c>
       <c r="I2">
-        <v>12.62</v>
+        <v>0.12</v>
       </c>
       <c r="J2">
-        <v>4.26</v>
+        <v>3.45</v>
       </c>
       <c r="K2">
-        <v>6.419999999999999</v>
+        <v>15.38</v>
       </c>
       <c r="L2">
-        <v>66.33</v>
+        <v>76.55000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>16.34</v>
+        <v>17.16</v>
       </c>
       <c r="C3">
-        <v>22.67</v>
+        <v>1.44</v>
       </c>
       <c r="D3">
-        <v>6.419999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="E3">
-        <v>10.02</v>
+        <v>17.51</v>
       </c>
       <c r="F3">
-        <v>22.25</v>
+        <v>25.72</v>
       </c>
       <c r="G3">
-        <v>8.619999999999999</v>
+        <v>4.590000000000001</v>
       </c>
       <c r="H3">
-        <v>2.05</v>
+        <v>0.06</v>
       </c>
       <c r="I3">
-        <v>5.319999999999999</v>
+        <v>2.31</v>
       </c>
       <c r="J3">
-        <v>4.33</v>
+        <v>15.24</v>
       </c>
       <c r="K3">
-        <v>1.98</v>
+        <v>15.32</v>
       </c>
       <c r="L3">
-        <v>86.32000000000001</v>
+        <v>67.07000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>15.49</v>
+        <v>17.13</v>
       </c>
       <c r="C4">
-        <v>7.290000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="D4">
-        <v>9.220000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
-        <v>22.06</v>
+        <v>4.96</v>
       </c>
       <c r="F4">
-        <v>10.93</v>
+        <v>29.52</v>
       </c>
       <c r="G4">
-        <v>1.74</v>
+        <v>14.53</v>
       </c>
       <c r="H4">
-        <v>7.779999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="I4">
-        <v>13.61</v>
+        <v>0.46</v>
       </c>
       <c r="J4">
-        <v>5.86</v>
+        <v>9.4</v>
       </c>
       <c r="K4">
-        <v>6.02</v>
+        <v>19.35</v>
       </c>
       <c r="L4">
-        <v>66.73</v>
+        <v>70.17000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>12.71</v>
+        <v>15.17</v>
       </c>
       <c r="C5">
-        <v>7.1</v>
+        <v>17.1</v>
       </c>
       <c r="D5">
-        <v>18.4</v>
+        <v>2.81</v>
       </c>
       <c r="E5">
-        <v>12.01</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
-        <v>1.97</v>
+        <v>5.27</v>
       </c>
       <c r="G5">
-        <v>4.3</v>
+        <v>25.54</v>
       </c>
       <c r="H5">
-        <v>16.64</v>
+        <v>16.23</v>
       </c>
       <c r="I5">
-        <v>12.76</v>
+        <v>0.45</v>
       </c>
       <c r="J5">
-        <v>3.7</v>
+        <v>1.34</v>
       </c>
       <c r="K5">
-        <v>10.41</v>
+        <v>15.97</v>
       </c>
       <c r="L5">
-        <v>56.48999999999999</v>
+        <v>66.01000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>12.62</v>
+        <v>10.82</v>
       </c>
       <c r="C6">
-        <v>9.34</v>
+        <v>26.46</v>
       </c>
       <c r="D6">
-        <v>4.399999999999999</v>
+        <v>9.93</v>
       </c>
       <c r="E6">
-        <v>18.48</v>
+        <v>0.49</v>
       </c>
       <c r="F6">
-        <v>19.17</v>
+        <v>1.3</v>
       </c>
       <c r="G6">
-        <v>3.5</v>
+        <v>14.66</v>
       </c>
       <c r="H6">
-        <v>4.89</v>
+        <v>21.19</v>
       </c>
       <c r="I6">
-        <v>13.41</v>
+        <v>5.63</v>
       </c>
       <c r="J6">
-        <v>7.870000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="K6">
-        <v>6.32</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="L6">
-        <v>67.51000000000001</v>
+        <v>63.66</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>10.46</v>
+        <v>7.03</v>
       </c>
       <c r="C7">
-        <v>8.870000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D7">
-        <v>15.79</v>
+        <v>5.08</v>
       </c>
       <c r="E7">
-        <v>6.79</v>
+        <v>20.16</v>
       </c>
       <c r="F7">
-        <v>1.21</v>
+        <v>12.51</v>
       </c>
       <c r="G7">
-        <v>9.99</v>
+        <v>1.08</v>
       </c>
       <c r="H7">
-        <v>20.89</v>
+        <v>0.6</v>
       </c>
       <c r="I7">
-        <v>8.83</v>
+        <v>10.43</v>
       </c>
       <c r="J7">
-        <v>3.58</v>
+        <v>29.33</v>
       </c>
       <c r="K7">
-        <v>13.59</v>
+        <v>13.7</v>
       </c>
       <c r="L7">
-        <v>53.11</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>8.42</v>
+        <v>4.84</v>
       </c>
       <c r="C8">
-        <v>26.73</v>
+        <v>26.6</v>
       </c>
       <c r="D8">
-        <v>16.18</v>
+        <v>27.89</v>
       </c>
       <c r="E8">
-        <v>6.01</v>
+        <v>5.16</v>
       </c>
       <c r="F8">
-        <v>18.45</v>
+        <v>0.25</v>
       </c>
       <c r="G8">
-        <v>13.49</v>
+        <v>5.89</v>
       </c>
       <c r="H8">
-        <v>2.47</v>
+        <v>17.05</v>
       </c>
       <c r="I8">
-        <v>3.62</v>
+        <v>7.88</v>
       </c>
       <c r="J8">
-        <v>3.32</v>
+        <v>0.75</v>
       </c>
       <c r="K8">
-        <v>1.31</v>
+        <v>3.69</v>
       </c>
       <c r="L8">
-        <v>89.27999999999999</v>
+        <v>70.63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2.61</v>
+        <v>3.69</v>
       </c>
       <c r="C9">
-        <v>5.149999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="D9">
-        <v>6.19</v>
+        <v>10.36</v>
       </c>
       <c r="E9">
-        <v>1.89</v>
+        <v>14.76</v>
       </c>
       <c r="F9">
-        <v>2.9</v>
+        <v>3.57</v>
       </c>
       <c r="G9">
-        <v>18.76</v>
+        <v>1.79</v>
       </c>
       <c r="H9">
-        <v>17.41</v>
+        <v>20.96</v>
       </c>
       <c r="I9">
-        <v>4.56</v>
+        <v>33.14</v>
       </c>
       <c r="J9">
-        <v>13.71</v>
+        <v>9.85</v>
       </c>
       <c r="K9">
-        <v>26.82</v>
+        <v>0.45</v>
       </c>
       <c r="L9">
-        <v>37.5</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="C10">
-        <v>4.81</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>5.65</v>
+        <v>6.569999999999999</v>
       </c>
       <c r="E10">
-        <v>1.84</v>
+        <v>13.92</v>
       </c>
       <c r="F10">
-        <v>7.779999999999999</v>
+        <v>5.17</v>
       </c>
       <c r="G10">
-        <v>21.5</v>
+        <v>0.29</v>
       </c>
       <c r="H10">
-        <v>11.05</v>
+        <v>6.22</v>
       </c>
       <c r="I10">
-        <v>5.92</v>
+        <v>30.91</v>
       </c>
       <c r="J10">
-        <v>22.41</v>
+        <v>29.18</v>
       </c>
       <c r="K10">
-        <v>16.48</v>
+        <v>4.64</v>
       </c>
       <c r="L10">
-        <v>44.14</v>
+        <v>29.05</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0.72</v>
       </c>
       <c r="C11">
-        <v>2.05</v>
+        <v>11.75</v>
       </c>
       <c r="D11">
-        <v>2.17</v>
+        <v>35.96</v>
       </c>
       <c r="E11">
-        <v>1.33</v>
+        <v>22.1</v>
       </c>
       <c r="F11">
-        <v>10.1</v>
+        <v>1.84</v>
       </c>
       <c r="G11">
-        <v>16.22</v>
+        <v>2.95</v>
       </c>
       <c r="H11">
-        <v>6.45</v>
+        <v>12.57</v>
       </c>
       <c r="I11">
-        <v>19.35</v>
+        <v>8.67</v>
       </c>
       <c r="J11">
-        <v>30.96</v>
+        <v>1.15</v>
       </c>
       <c r="K11">
-        <v>10.65</v>
+        <v>2.29</v>
       </c>
       <c r="L11">
-        <v>32.59</v>
+        <v>75.32000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +1793,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -1801,13 +1807,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -1818,13 +1824,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -1838,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1855,13 +1861,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1872,13 +1878,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1889,13 +1895,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1906,13 +1912,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1923,13 +1929,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1940,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-35</v>
+        <v>-36</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1956,51 +1962,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2037,93 +2046,102 @@
       <c r="L2">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>-1</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>17</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-2</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2160,11 +2178,14 @@
       <c r="L5">
         <v>12</v>
       </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2201,11 +2222,14 @@
       <c r="L6">
         <v>10</v>
       </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2242,11 +2266,14 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>-5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2283,11 +2310,14 @@
       <c r="L8">
         <v>-8</v>
       </c>
-      <c r="M8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2324,11 +2354,14 @@
       <c r="L9">
         <v>-23</v>
       </c>
-      <c r="M9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2365,11 +2398,14 @@
       <c r="L10">
         <v>-31</v>
       </c>
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2406,8 +2442,11 @@
       <c r="L11">
         <v>-35</v>
       </c>
-      <c r="M11" t="s">
-        <v>46</v>
+      <c r="M11">
+        <v>-36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2456,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2425,25 +2464,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2451,25 +2490,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>-30</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2477,25 +2516,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>-24</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2503,25 +2542,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
       <c r="F4">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2529,25 +2568,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
       <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
         <v>-2</v>
       </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
       <c r="G5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2555,24 +2594,102 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6">
+        <v>-36</v>
+      </c>
+      <c r="F6">
+        <v>-12</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-2</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>-1</v>
       </c>
-      <c r="G6">
+      <c r="G9">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H9" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="69">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,37 +52,40 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,28 +145,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑11</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -624,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -642,13 +648,13 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -656,34 +662,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -691,34 +697,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -729,31 +735,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -764,31 +770,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -802,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -834,31 +840,31 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -866,16 +872,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -884,13 +890,13 @@
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -904,25 +910,25 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -936,31 +942,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
@@ -981,13 +987,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -998,10 +1004,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1012,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1026,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1040,10 +1046,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1051,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1065,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1082,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1093,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1110,10 +1116,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1145,16 +1151,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1165,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="D2">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1182,13 +1188,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="D3">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1199,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="D4">
         <v>0.4000000000000004</v>
@@ -1213,16 +1219,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1230,16 +1236,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D6">
-        <v>-1.3</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1250,13 +1256,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>0.09999999999999964</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1267,13 +1273,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="D8">
-        <v>0.5999999999999996</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1284,10 +1290,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D9">
-        <v>-1.1</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1307,7 +1313,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1318,10 +1324,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D11">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1342,116 +1348,116 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>20.84</v>
+        <v>28.19</v>
       </c>
       <c r="C2">
-        <v>10.71</v>
+        <v>17.41</v>
       </c>
       <c r="D2">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="E2">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14.85</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>28.68</v>
+        <v>0.09</v>
       </c>
       <c r="H2">
-        <v>4.5</v>
+        <v>3.93</v>
       </c>
       <c r="I2">
-        <v>0.12</v>
+        <v>28.7</v>
       </c>
       <c r="J2">
-        <v>3.45</v>
+        <v>20.94</v>
       </c>
       <c r="K2">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>76.55000000000001</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>17.16</v>
+        <v>21.07</v>
       </c>
       <c r="C3">
-        <v>1.44</v>
+        <v>3.71</v>
       </c>
       <c r="D3">
-        <v>0.65</v>
+        <v>0.09</v>
       </c>
       <c r="E3">
-        <v>17.51</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>25.72</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.590000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="H3">
-        <v>0.06</v>
+        <v>25.04</v>
       </c>
       <c r="I3">
-        <v>2.31</v>
+        <v>49.13</v>
       </c>
       <c r="J3">
-        <v>15.24</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.32</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>67.07000000000001</v>
+        <v>25.83</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1459,265 +1465,265 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>17.13</v>
+        <v>15.17</v>
       </c>
       <c r="C4">
-        <v>3.93</v>
+        <v>25.94</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>5.1</v>
       </c>
       <c r="E4">
-        <v>4.96</v>
+        <v>0.08</v>
       </c>
       <c r="F4">
-        <v>29.52</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>14.53</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="I4">
-        <v>0.46</v>
+        <v>16.24</v>
       </c>
       <c r="J4">
-        <v>9.4</v>
+        <v>30.95</v>
       </c>
       <c r="K4">
-        <v>19.35</v>
+        <v>5.77</v>
       </c>
       <c r="L4">
-        <v>70.17000000000002</v>
+        <v>46.29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>15.17</v>
+        <v>15.01</v>
       </c>
       <c r="C5">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5.27</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>25.54</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="H5">
-        <v>16.23</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.97</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>66.01000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>10.82</v>
+        <v>14.79</v>
       </c>
       <c r="C6">
-        <v>26.46</v>
+        <v>1.05</v>
       </c>
       <c r="D6">
-        <v>9.93</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>14.66</v>
+        <v>13.96</v>
       </c>
       <c r="H6">
-        <v>21.19</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="I6">
-        <v>5.63</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.210000000000001</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>63.66</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>7.03</v>
+        <v>5.77</v>
       </c>
       <c r="C7">
+        <v>30.52</v>
+      </c>
+      <c r="D7">
+        <v>15.22</v>
+      </c>
+      <c r="E7">
+        <v>0.86</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.08</v>
       </c>
-      <c r="D7">
-        <v>5.08</v>
-      </c>
-      <c r="E7">
-        <v>20.16</v>
-      </c>
-      <c r="F7">
-        <v>12.51</v>
-      </c>
-      <c r="G7">
-        <v>1.08</v>
-      </c>
-      <c r="H7">
-        <v>0.6</v>
-      </c>
       <c r="I7">
-        <v>10.43</v>
+        <v>4.99</v>
       </c>
       <c r="J7">
-        <v>29.33</v>
+        <v>26.96</v>
       </c>
       <c r="K7">
-        <v>13.7</v>
+        <v>15.6</v>
       </c>
       <c r="L7">
-        <v>45.94</v>
+        <v>52.37</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>26.6</v>
+        <v>21.37</v>
       </c>
       <c r="D8">
-        <v>27.89</v>
+        <v>33.29</v>
       </c>
       <c r="E8">
-        <v>5.16</v>
+        <v>4.7</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>17.05</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>7.88</v>
+        <v>0.84</v>
       </c>
       <c r="J8">
-        <v>0.75</v>
+        <v>15.51</v>
       </c>
       <c r="K8">
-        <v>3.69</v>
+        <v>24.19</v>
       </c>
       <c r="L8">
-        <v>70.63</v>
+        <v>59.46</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>10.36</v>
+        <v>45.56</v>
       </c>
       <c r="E9">
-        <v>14.76</v>
+        <v>26.81</v>
       </c>
       <c r="F9">
-        <v>3.57</v>
+        <v>0.96</v>
       </c>
       <c r="G9">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>20.96</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>33.14</v>
+        <v>0.1</v>
       </c>
       <c r="J9">
-        <v>9.85</v>
+        <v>4.58</v>
       </c>
       <c r="K9">
-        <v>0.45</v>
+        <v>21.99</v>
       </c>
       <c r="L9">
-        <v>35.6</v>
+        <v>73.33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>6.569999999999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>13.92</v>
+        <v>67.55</v>
       </c>
       <c r="F10">
-        <v>5.17</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>6.22</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>30.91</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>29.18</v>
+        <v>1.06</v>
       </c>
       <c r="K10">
-        <v>4.64</v>
+        <v>17.39</v>
       </c>
       <c r="L10">
-        <v>29.05</v>
+        <v>81.55</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1725,37 +1731,37 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>35.96</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.84</v>
+        <v>84.94</v>
       </c>
       <c r="G11">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>12.57</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.67</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2.29</v>
+        <v>15.06</v>
       </c>
       <c r="L11">
-        <v>75.32000000000001</v>
+        <v>84.94</v>
       </c>
     </row>
   </sheetData>
@@ -1773,16 +1779,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1793,13 +1799,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1810,13 +1816,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1824,13 +1830,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -1841,13 +1847,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -1861,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -1878,13 +1884,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1898,10 +1904,10 @@
         <v>-12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1912,10 +1918,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-26</v>
+        <v>-30</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -1929,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1946,13 +1952,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-36</v>
+        <v>-41</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1962,54 +1968,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>61</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2049,11 +2058,14 @@
       <c r="M2">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2093,99 +2105,108 @@
       <c r="M3">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-6</v>
+      </c>
+      <c r="C4">
+        <v>-6</v>
+      </c>
+      <c r="D4">
+        <v>-6</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-1</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>19</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>17</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>22</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>-6</v>
-      </c>
-      <c r="C5">
-        <v>-6</v>
-      </c>
-      <c r="D5">
-        <v>-6</v>
-      </c>
-      <c r="E5">
-        <v>-2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
+      <c r="N5">
         <v>11</v>
       </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>11</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2225,11 +2246,14 @@
       <c r="M6">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2269,11 +2293,14 @@
       <c r="M7">
         <v>-5</v>
       </c>
-      <c r="N7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2313,11 +2340,14 @@
       <c r="M8">
         <v>-12</v>
       </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>-12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2357,11 +2387,14 @@
       <c r="M9">
         <v>-26</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <v>-30</v>
+      </c>
+      <c r="O9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2401,11 +2434,14 @@
       <c r="M10">
         <v>-30</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10">
+        <v>-32</v>
+      </c>
+      <c r="O10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2445,8 +2481,11 @@
       <c r="M11">
         <v>-36</v>
       </c>
-      <c r="N11" t="s">
-        <v>43</v>
+      <c r="N11">
+        <v>-41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2464,25 +2503,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2490,25 +2529,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>-30</v>
+        <v>11</v>
       </c>
       <c r="F2">
+        <v>-41</v>
+      </c>
+      <c r="G2">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2516,25 +2555,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>-30</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2542,25 +2581,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>-24</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2568,25 +2607,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2594,25 +2633,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>-36</v>
-      </c>
       <c r="F6">
-        <v>-12</v>
+        <v>-24</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2620,25 +2659,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
       <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
         <v>-2</v>
       </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
       <c r="G7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2649,22 +2688,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>-36</v>
       </c>
       <c r="F8">
-        <v>44</v>
+        <v>-12</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2672,25 +2711,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="71">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,40 +52,43 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -145,28 +148,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>0</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -630,31 +636,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -662,34 +668,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -700,31 +706,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -732,34 +738,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -770,31 +776,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -802,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -837,34 +843,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -878,28 +884,28 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -907,34 +913,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -942,34 +948,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -987,13 +993,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1004,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1018,10 +1024,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1029,13 +1035,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1043,13 +1049,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1060,10 +1066,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1074,10 +1080,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1085,13 +1091,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1099,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1116,10 +1122,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1130,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1151,16 +1157,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1171,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D2">
-        <v>-1.5</v>
+        <v>-1.199999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1185,16 +1191,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="D3">
-        <v>1.6</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1202,16 +1208,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D4">
-        <v>0.4000000000000004</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1222,13 +1228,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1239,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D6">
-        <v>-0.9000000000000004</v>
+        <v>-1.2</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1256,13 +1262,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
         <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1273,13 +1279,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D8">
-        <v>0.2999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1290,13 +1296,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D9">
-        <v>-0.9000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1307,13 +1313,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D10">
-        <v>0.7000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1330,7 +1336,7 @@
         <v>1.3</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1348,40 +1354,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1389,51 +1395,51 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>28.19</v>
+        <v>27.4</v>
       </c>
       <c r="C2">
-        <v>17.41</v>
+        <v>15.15</v>
       </c>
       <c r="D2">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>3.93</v>
+        <v>3.74</v>
       </c>
       <c r="I2">
-        <v>28.7</v>
+        <v>29.88</v>
       </c>
       <c r="J2">
-        <v>20.94</v>
+        <v>23.05</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.43</v>
+        <v>43.33</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>21.07</v>
+        <v>20.08</v>
       </c>
       <c r="C3">
-        <v>3.71</v>
+        <v>1.16</v>
       </c>
       <c r="D3">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1442,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.96</v>
+        <v>10.09</v>
       </c>
       <c r="H3">
-        <v>25.04</v>
+        <v>68.67</v>
       </c>
       <c r="I3">
-        <v>49.13</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1457,83 +1463,83 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>25.83</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>15.17</v>
+        <v>18.22</v>
       </c>
       <c r="C4">
-        <v>25.94</v>
+        <v>3.36</v>
       </c>
       <c r="D4">
-        <v>5.1</v>
+        <v>0.06</v>
       </c>
       <c r="E4">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>26.81</v>
       </c>
       <c r="I4">
-        <v>16.24</v>
+        <v>50.45</v>
       </c>
       <c r="J4">
-        <v>30.95</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.77</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>46.29</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>15.01</v>
+        <v>17.08</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>29.15</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>84.98999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.64</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>28.13</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>52.61</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1541,10 +1547,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>14.79</v>
+        <v>11.25</v>
       </c>
       <c r="C6">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1556,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>13.96</v>
+        <v>88.75</v>
       </c>
       <c r="H6">
-        <v>70.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>29.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1579,16 +1585,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5.77</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="C7">
-        <v>30.52</v>
+        <v>30.38</v>
       </c>
       <c r="D7">
-        <v>15.22</v>
+        <v>16.71</v>
       </c>
       <c r="E7">
-        <v>0.86</v>
+        <v>1.42</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1597,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I7">
-        <v>4.99</v>
+        <v>5.48</v>
       </c>
       <c r="J7">
-        <v>26.96</v>
+        <v>25.08</v>
       </c>
       <c r="K7">
-        <v>15.6</v>
+        <v>14.83</v>
       </c>
       <c r="L7">
-        <v>52.37</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1620,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>21.37</v>
+        <v>20.8</v>
       </c>
       <c r="D8">
-        <v>33.29</v>
+        <v>35.68</v>
       </c>
       <c r="E8">
-        <v>4.7</v>
+        <v>7.82</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1638,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.84</v>
+        <v>1.36</v>
       </c>
       <c r="J8">
-        <v>15.51</v>
+        <v>14.37</v>
       </c>
       <c r="K8">
-        <v>24.19</v>
+        <v>19.78</v>
       </c>
       <c r="L8">
-        <v>59.46</v>
+        <v>64.49000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1661,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>45.56</v>
+        <v>40.58</v>
       </c>
       <c r="E9">
-        <v>26.81</v>
+        <v>31.31</v>
       </c>
       <c r="F9">
-        <v>0.96</v>
+        <v>2.65</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1676,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="J9">
-        <v>4.58</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="K9">
-        <v>21.99</v>
+        <v>18.74</v>
       </c>
       <c r="L9">
-        <v>73.33</v>
+        <v>74.54000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1702,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>67.55</v>
+        <v>59.31999999999999</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>18.17</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1717,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.06</v>
+        <v>2.84</v>
       </c>
       <c r="K10">
-        <v>17.39</v>
+        <v>19.67</v>
       </c>
       <c r="L10">
-        <v>81.55</v>
+        <v>77.48999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1743,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>84.94</v>
+        <v>78.99000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1758,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.06</v>
+        <v>21.01</v>
       </c>
       <c r="L11">
-        <v>84.94</v>
+        <v>78.99000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1779,16 +1785,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1799,13 +1805,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1816,13 +1822,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1830,16 +1836,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1847,16 +1853,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1867,13 +1873,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1884,13 +1890,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1901,13 +1907,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1918,13 +1924,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-30</v>
+        <v>-23</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1935,13 +1941,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1952,13 +1958,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-41</v>
+        <v>-50</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1968,57 +1974,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>63</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2061,11 +2070,14 @@
       <c r="N2">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2108,105 +2120,114 @@
       <c r="N3">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>-6</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-6</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-6</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>-2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>13</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>12</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>11</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>17</v>
       </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="O5">
         <v>13</v>
       </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>19</v>
-      </c>
-      <c r="J5">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>22</v>
-      </c>
-      <c r="M5">
-        <v>18</v>
-      </c>
-      <c r="N5">
-        <v>11</v>
-      </c>
-      <c r="O5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2249,11 +2270,14 @@
       <c r="N6">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2296,11 +2320,14 @@
       <c r="N7">
         <v>-1</v>
       </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2343,11 +2370,14 @@
       <c r="N8">
         <v>-12</v>
       </c>
-      <c r="O8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>-13</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2390,11 +2420,14 @@
       <c r="N9">
         <v>-30</v>
       </c>
-      <c r="O9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2437,11 +2470,14 @@
       <c r="N10">
         <v>-32</v>
       </c>
-      <c r="O10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2484,8 +2520,11 @@
       <c r="N11">
         <v>-41</v>
       </c>
-      <c r="O11" t="s">
-        <v>48</v>
+      <c r="O11">
+        <v>-50</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2534,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2503,25 +2542,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2555,25 +2594,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>-30</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2581,25 +2620,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>-30</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2607,25 +2646,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
       <c r="E5">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2633,25 +2672,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F6">
-        <v>-24</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2659,25 +2698,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>22</v>
-      </c>
       <c r="F7">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2685,25 +2724,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>-36</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2711,24 +2750,76 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>-36</v>
+      </c>
+      <c r="F10">
+        <v>-12</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>-2</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="75">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,43 +52,52 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
+    <t>11-3-1</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>9-5-1</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>1-14-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
+  </si>
+  <si>
+    <t>14-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,28 +157,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -212,6 +221,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -636,31 +648,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -668,34 +680,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -703,34 +715,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -738,34 +750,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -773,34 +785,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -808,28 +820,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -843,34 +855,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -887,25 +899,25 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -913,34 +925,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
       <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
         <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -948,34 +960,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -993,13 +1005,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1010,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1024,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1035,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1049,13 +1061,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1063,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1077,13 +1089,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1091,13 +1103,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1105,13 +1117,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1122,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1136,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1157,16 +1169,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1177,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="D2">
-        <v>-1.199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1194,13 +1206,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="D3">
-        <v>0.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1211,13 +1223,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4">
-        <v>1.699999999999999</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1228,13 +1240,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D5">
-        <v>-1.6</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1245,13 +1257,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="D6">
-        <v>-1.2</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1262,13 +1274,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D7">
         <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1279,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="D8">
-        <v>-0.2000000000000002</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1296,13 +1308,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D9">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1313,13 +1325,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1336,7 +1348,7 @@
         <v>1.3</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1354,40 +1366,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1395,37 +1407,37 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>27.4</v>
+        <v>27.66</v>
       </c>
       <c r="C2">
-        <v>15.15</v>
+        <v>15.01</v>
       </c>
       <c r="D2">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H2">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
       <c r="I2">
-        <v>29.88</v>
+        <v>30.68</v>
       </c>
       <c r="J2">
-        <v>23.05</v>
+        <v>22.59</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>43.33</v>
+        <v>43.31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1433,10 +1445,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>20.08</v>
+        <v>19.72</v>
       </c>
       <c r="C3">
-        <v>1.16</v>
+        <v>0.98</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1448,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>10.09</v>
+        <v>10.33</v>
       </c>
       <c r="H3">
-        <v>68.67</v>
+        <v>68.97</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1463,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>31.33</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1471,10 +1483,10 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>18.22</v>
+        <v>18.72</v>
       </c>
       <c r="C4">
-        <v>3.36</v>
+        <v>3.08</v>
       </c>
       <c r="D4">
         <v>0.06</v>
@@ -1486,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="H4">
-        <v>26.81</v>
+        <v>26.97</v>
       </c>
       <c r="I4">
-        <v>50.45</v>
+        <v>50.24999999999999</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1501,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>22.74</v>
+        <v>22.77999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1509,37 +1521,37 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>17.08</v>
+        <v>16.66</v>
       </c>
       <c r="C5">
-        <v>29.15</v>
+        <v>29.95</v>
       </c>
       <c r="D5">
-        <v>6.25</v>
+        <v>5.74</v>
       </c>
       <c r="E5">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="I5">
-        <v>12.64</v>
+        <v>12.69</v>
       </c>
       <c r="J5">
-        <v>28.13</v>
+        <v>28.39</v>
       </c>
       <c r="K5">
-        <v>5.970000000000001</v>
+        <v>5.93</v>
       </c>
       <c r="L5">
-        <v>52.61</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1547,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>11.25</v>
+        <v>11.31</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1562,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>88.75</v>
+        <v>88.69</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1585,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5.970000000000001</v>
+        <v>5.93</v>
       </c>
       <c r="C7">
-        <v>30.38</v>
+        <v>30.84</v>
       </c>
       <c r="D7">
-        <v>16.71</v>
+        <v>17.65</v>
       </c>
       <c r="E7">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1603,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I7">
-        <v>5.48</v>
+        <v>5.29</v>
       </c>
       <c r="J7">
-        <v>25.08</v>
+        <v>24.99</v>
       </c>
       <c r="K7">
-        <v>14.83</v>
+        <v>14.21</v>
       </c>
       <c r="L7">
-        <v>54.48</v>
+        <v>55.45999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1626,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>20.8</v>
+        <v>20.14</v>
       </c>
       <c r="D8">
-        <v>35.68</v>
+        <v>35.99</v>
       </c>
       <c r="E8">
-        <v>7.82</v>
+        <v>7.55</v>
       </c>
       <c r="F8">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1644,16 +1656,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.36</v>
+        <v>0.89</v>
       </c>
       <c r="J8">
-        <v>14.37</v>
+        <v>15.39</v>
       </c>
       <c r="K8">
-        <v>19.78</v>
+        <v>19.84</v>
       </c>
       <c r="L8">
-        <v>64.49000000000001</v>
+        <v>63.88</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1667,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>40.58</v>
+        <v>39.98</v>
       </c>
       <c r="E9">
-        <v>31.31</v>
+        <v>32.4</v>
       </c>
       <c r="F9">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1682,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="J9">
-        <v>6.529999999999999</v>
+        <v>6.02</v>
       </c>
       <c r="K9">
-        <v>18.74</v>
+        <v>18.98</v>
       </c>
       <c r="L9">
-        <v>74.54000000000001</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1708,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>59.31999999999999</v>
+        <v>58.96</v>
       </c>
       <c r="F10">
-        <v>18.17</v>
+        <v>16.98</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1723,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="K10">
-        <v>19.67</v>
+        <v>21.44</v>
       </c>
       <c r="L10">
-        <v>77.48999999999999</v>
+        <v>75.94</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1749,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>78.99000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1764,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.01</v>
+        <v>19.6</v>
       </c>
       <c r="L11">
-        <v>78.99000000000001</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1785,16 +1797,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1808,10 +1820,10 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1822,13 +1834,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1839,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1856,13 +1868,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1870,16 +1882,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1887,16 +1899,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1907,13 +1919,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1924,13 +1936,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-23</v>
+        <v>-31</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1941,13 +1953,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-40</v>
+        <v>-44</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1958,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-50</v>
+        <v>-61</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1974,60 +1986,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2073,11 +2088,14 @@
       <c r="O2">
         <v>47</v>
       </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2123,11 +2141,14 @@
       <c r="O3">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2173,11 +2194,14 @@
       <c r="O4">
         <v>14</v>
       </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2223,111 +2247,120 @@
       <c r="O5">
         <v>13</v>
       </c>
-      <c r="P5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-6</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
       <c r="J6">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="O6">
         <v>8</v>
       </c>
-      <c r="P6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
         <v>7</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>-5</v>
-      </c>
-      <c r="N7">
-        <v>-1</v>
       </c>
       <c r="O7">
         <v>8</v>
       </c>
-      <c r="P7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2373,11 +2406,14 @@
       <c r="O8">
         <v>-13</v>
       </c>
-      <c r="P8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2423,11 +2459,14 @@
       <c r="O9">
         <v>-23</v>
       </c>
-      <c r="P9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2473,11 +2512,14 @@
       <c r="O10">
         <v>-40</v>
       </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-44</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2523,8 +2565,11 @@
       <c r="O11">
         <v>-50</v>
       </c>
-      <c r="P11" t="s">
-        <v>49</v>
+      <c r="P11">
+        <v>-61</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2579,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2542,25 +2587,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2795,32 +2840,6 @@
       </c>
       <c r="H10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>-2</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2024.xlsx
+++ b/Brown Munde 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="77">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,52 +52,55 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>11-3-1</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>9-5-1</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>1-14-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
-  </si>
-  <si>
-    <t>14-1-0</t>
+    <t>12-4-1</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>10-6-1</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>1-16-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>16-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -157,30 +160,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↑5</t>
   </si>
   <si>
     <t>↓11</t>
   </si>
   <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -648,31 +654,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -683,31 +689,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -718,31 +724,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -750,34 +756,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -785,34 +791,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -820,31 +826,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -858,31 +864,31 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -890,34 +896,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -925,34 +931,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -960,10 +966,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -972,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1005,13 +1011,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1022,10 +1028,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1036,10 +1042,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1047,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1061,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1078,10 +1084,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1092,10 +1098,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1103,13 +1109,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>8.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1117,13 +1123,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1131,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>8.6</v>
+        <v>9.9</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1145,13 +1151,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1169,16 +1175,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1189,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.5</v>
+        <v>11.8</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1203,16 +1209,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1220,16 +1226,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="D4">
-        <v>1.300000000000001</v>
-      </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1240,13 +1246,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="D5">
-        <v>-1.300000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1257,13 +1263,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>8.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D6">
-        <v>-0.4000000000000004</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1271,16 +1277,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1288,16 +1294,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D8">
-        <v>-0.7000000000000002</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1308,13 +1314,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>-1.4</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1331,7 +1337,7 @@
         <v>0.5999999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1342,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1366,54 +1372,54 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>27.66</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>15.01</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1422,22 +1428,22 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>30.68</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>22.59</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>43.31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1445,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>19.72</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.98</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1460,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>68.97</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1475,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>31.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1483,13 +1489,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>18.72</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1498,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>26.97</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>50.24999999999999</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1513,24 +1519,24 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>22.77999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>16.66</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>29.95</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5.74</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1539,27 +1545,27 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>12.69</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>28.39</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5.93</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>52.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>11.31</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1571,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>88.69</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1597,37 +1603,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5.93</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>30.84</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>17.65</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>5.29</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>24.99</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.21</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>55.45999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1638,34 +1644,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>20.14</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>35.99</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.39</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>19.84</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>63.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1679,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>39.98</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1694,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.98</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>74.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1720,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>58.96</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>16.98</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1735,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.62</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>21.44</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>75.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1761,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1776,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.6</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>80.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1797,16 +1803,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1817,13 +1823,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1834,13 +1840,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1848,16 +1854,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1865,16 +1871,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1882,16 +1888,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1899,16 +1905,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1919,13 +1925,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1936,13 +1942,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-31</v>
+        <v>-46</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1953,13 +1959,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-44</v>
+        <v>-59</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1970,13 +1976,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-61</v>
+        <v>-62</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1986,13 +1992,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2039,10 +2045,16 @@
         <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>68</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2091,11 +2103,17 @@
       <c r="P2">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>52</v>
+      </c>
+      <c r="R2">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2144,223 +2162,253 @@
       <c r="P3">
         <v>41</v>
       </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>48</v>
+      </c>
+      <c r="R3">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-6</v>
+      </c>
+      <c r="C4">
+        <v>-6</v>
+      </c>
+      <c r="D4">
+        <v>-6</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-1</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>19</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>17</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>22</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>18</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>11</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>14</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>23</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q5">
+        <v>22</v>
+      </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+      <c r="S5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>-6</v>
       </c>
-      <c r="C5">
+      <c r="F6">
         <v>-6</v>
       </c>
-      <c r="D5">
-        <v>-6</v>
-      </c>
-      <c r="E5">
-        <v>-2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
         <v>7</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>11</v>
-      </c>
-      <c r="N5">
-        <v>17</v>
-      </c>
-      <c r="O5">
-        <v>13</v>
-      </c>
-      <c r="P5">
-        <v>19</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>-5</v>
-      </c>
-      <c r="N6">
-        <v>-1</v>
       </c>
       <c r="O6">
         <v>8</v>
       </c>
       <c r="P6">
-        <v>17</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="R6">
+        <v>14</v>
+      </c>
+      <c r="S6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
       <c r="J7">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="O7">
         <v>8</v>
       </c>
       <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>17</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2409,11 +2457,17 @@
       <c r="P8">
         <v>-16</v>
       </c>
-      <c r="Q8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>-17</v>
+      </c>
+      <c r="R8">
+        <v>-12</v>
+      </c>
+      <c r="S8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2462,11 +2516,17 @@
       <c r="P9">
         <v>-31</v>
       </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <v>-35</v>
+      </c>
+      <c r="R9">
+        <v>-46</v>
+      </c>
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2515,11 +2575,17 @@
       <c r="P10">
         <v>-44</v>
       </c>
-      <c r="Q10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <v>-50</v>
+      </c>
+      <c r="R10">
+        <v>-59</v>
+      </c>
+      <c r="S10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2568,8 +2634,14 @@
       <c r="P11">
         <v>-61</v>
       </c>
-      <c r="Q11" t="s">
-        <v>52</v>
+      <c r="Q11">
+        <v>-65</v>
+      </c>
+      <c r="R11">
+        <v>-62</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2579,7 +2651,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2587,25 +2659,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2691,25 +2763,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2717,25 +2789,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2743,25 +2815,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F7">
-        <v>-24</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2769,77 +2841,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
       <c r="F8">
-        <v>-13</v>
+        <v>-24</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>-2</v>
-      </c>
-      <c r="G9">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>-36</v>
-      </c>
-      <c r="F10">
-        <v>-12</v>
-      </c>
-      <c r="G10">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
